--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.784195294688487</v>
+        <v>1.784195294688715</v>
       </c>
       <c r="C2">
-        <v>0.3705169903372507</v>
+        <v>0.3705169903376486</v>
       </c>
       <c r="D2">
-        <v>0.2582291304104274</v>
+        <v>0.2582291304099158</v>
       </c>
       <c r="E2">
-        <v>0.1601496069243922</v>
+        <v>0.1601496069243851</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03247472235711513</v>
+        <v>0.03247472235710092</v>
       </c>
       <c r="J2">
-        <v>0.4760519795560398</v>
+        <v>0.4760519795560327</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6894079683565408</v>
+        <v>0.6894079683565622</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.521986725268221</v>
+        <v>1.521986725268391</v>
       </c>
       <c r="C3">
-        <v>0.3121371006765514</v>
+        <v>0.3121371006760967</v>
       </c>
       <c r="D3">
-        <v>0.2236937756019302</v>
+        <v>0.2236937756015038</v>
       </c>
       <c r="E3">
-        <v>0.1399825480205656</v>
+        <v>0.1399825480205195</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.815360529056477</v>
+        <v>7.81536052905642</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02864370776598335</v>
+        <v>0.02864370776608993</v>
       </c>
       <c r="J3">
-        <v>0.4045885441958035</v>
+        <v>0.404588544195768</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5910886449195303</v>
+        <v>0.591088644919509</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>1.366908588358314</v>
       </c>
       <c r="C4">
-        <v>0.2778303436479916</v>
+        <v>0.2778303436475937</v>
       </c>
       <c r="D4">
-        <v>0.2031133915433969</v>
+        <v>0.2031133915434111</v>
       </c>
       <c r="E4">
-        <v>0.12795452577015</v>
+        <v>0.1279545257701606</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.152009823006523</v>
+        <v>7.152009823006495</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02635666131236292</v>
+        <v>0.02635666131235226</v>
       </c>
       <c r="J4">
-        <v>0.3623890514929755</v>
+        <v>0.3623890514929684</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5328146874993109</v>
+        <v>0.5328146874993465</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.304981080766851</v>
+        <v>1.304981080766822</v>
       </c>
       <c r="C5">
-        <v>0.264174797664694</v>
+        <v>0.2641747976647366</v>
       </c>
       <c r="D5">
-        <v>0.1948605919567825</v>
+        <v>0.1948605919563278</v>
       </c>
       <c r="E5">
-        <v>0.1231290220867223</v>
+        <v>0.1231290220867507</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02543860475826065</v>
+        <v>0.02543860475829085</v>
       </c>
       <c r="J5">
-        <v>0.3455508617708816</v>
+        <v>0.34555086177091</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.29476874422383</v>
+        <v>1.294768744223887</v>
       </c>
       <c r="C6">
-        <v>0.2619252558573066</v>
+        <v>0.261925255857733</v>
       </c>
       <c r="D6">
-        <v>0.1934976829691522</v>
+        <v>0.1934976829690953</v>
       </c>
       <c r="E6">
-        <v>0.1223319870053068</v>
+        <v>0.1223319870053778</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.841149311789366</v>
+        <v>6.841149311789422</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02528693720369546</v>
+        <v>0.0252869372037523</v>
       </c>
       <c r="J6">
-        <v>0.3427748313629451</v>
+        <v>0.3427748313628527</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.366068548580955</v>
+        <v>1.366068548580586</v>
       </c>
       <c r="C7">
-        <v>0.2776449415012507</v>
+        <v>0.2776449415003981</v>
       </c>
       <c r="D7">
         <v>0.2030015778941276</v>
       </c>
       <c r="E7">
-        <v>0.1278891558072246</v>
+        <v>0.1278891558073312</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.148398662395834</v>
+        <v>7.148398662395778</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0263442267081242</v>
+        <v>0.02634422670807268</v>
       </c>
       <c r="J7">
-        <v>0.3621605928217093</v>
+        <v>0.3621605928216667</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5324987590706343</v>
+        <v>0.5324987590706556</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.692415271593745</v>
+        <v>1.692415271593575</v>
       </c>
       <c r="C8">
         <v>0.3500280237992683</v>
       </c>
       <c r="D8">
-        <v>0.2461768477835449</v>
+        <v>0.2461768477830901</v>
       </c>
       <c r="E8">
-        <v>0.1531139451861705</v>
+        <v>0.1531139451862487</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.537374803105962</v>
+        <v>8.53737480310599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0.03113867154301175</v>
       </c>
       <c r="J8">
-        <v>0.4510216467543913</v>
+        <v>0.4510216467544055</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6550227421634958</v>
+        <v>0.6550227421635171</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.391110753127805</v>
+        <v>2.391110753127862</v>
       </c>
       <c r="C9">
-        <v>0.507527358463193</v>
+        <v>0.5075273584637046</v>
       </c>
       <c r="D9">
-        <v>0.3370261797867329</v>
+        <v>0.3370261797872445</v>
       </c>
       <c r="E9">
-        <v>0.2060902749514923</v>
+        <v>0.2060902749516629</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.43406032727253</v>
+        <v>11.43406032727236</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.04118823500316182</v>
+        <v>0.04118823500308544</v>
       </c>
       <c r="J9">
         <v>0.6420196131247451</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9160495934706674</v>
+        <v>0.9160495934706319</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.960326066935977</v>
+        <v>2.96032606693575</v>
       </c>
       <c r="C10">
-        <v>0.6384933017926642</v>
+        <v>0.6384933017916126</v>
       </c>
       <c r="D10">
-        <v>0.4096191519797117</v>
+        <v>0.4096191519798253</v>
       </c>
       <c r="E10">
-        <v>0.2483278733292806</v>
+        <v>0.2483278733292309</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.73188332281202</v>
+        <v>13.73188332281168</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.04918586414839332</v>
+        <v>0.04918586414847681</v>
       </c>
       <c r="J10">
-        <v>0.7983985587082003</v>
+        <v>0.7983985587081222</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.12752819007725</v>
+        <v>1.127528190077236</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.237312155296479</v>
+        <v>3.237312155296252</v>
       </c>
       <c r="C11">
-        <v>0.70310224555422</v>
+        <v>0.7031022455536231</v>
       </c>
       <c r="D11">
-        <v>0.4445155891081924</v>
+        <v>0.4445155891079082</v>
       </c>
       <c r="E11">
-        <v>0.268603021376336</v>
+        <v>0.268603021376471</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.83269146387141</v>
+        <v>14.8326914638713</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05302088702030261</v>
+        <v>0.05302088702031504</v>
       </c>
       <c r="J11">
-        <v>0.8747494253055805</v>
+        <v>0.8747494253055379</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.230078147186326</v>
+        <v>1.230078147186319</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.345439092002948</v>
+        <v>3.345439092002493</v>
       </c>
       <c r="C12">
-        <v>0.7284812564651872</v>
+        <v>0.7284812564639083</v>
       </c>
       <c r="D12">
-        <v>0.4580644505093971</v>
+        <v>0.4580644505100224</v>
       </c>
       <c r="E12">
-        <v>0.2764699146490415</v>
+        <v>0.2764699146491338</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.25953513898429</v>
+        <v>15.2595351389844</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0545082281288547</v>
+        <v>0.05450822812889911</v>
       </c>
       <c r="J12">
-        <v>0.9046000731585124</v>
+        <v>0.904600073158484</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.270048747988497</v>
+        <v>1.270048747988554</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.321996006836457</v>
+        <v>3.321996006836514</v>
       </c>
       <c r="C13">
-        <v>0.7229712748105044</v>
+        <v>0.7229712748114139</v>
       </c>
       <c r="D13">
-        <v>0.4551303872684116</v>
+        <v>0.4551303872682126</v>
       </c>
       <c r="E13">
-        <v>0.274766549660427</v>
+        <v>0.2747665496603986</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.16712509990941</v>
+        <v>15.16712509990981</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.05418621579888772</v>
+        <v>0.05418621579889482</v>
       </c>
       <c r="J13">
-        <v>0.8981259531336931</v>
+        <v>0.8981259531337429</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.261385610177243</v>
+        <v>1.261385610177214</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.246138663337263</v>
+        <v>3.246138663337149</v>
       </c>
       <c r="C14">
-        <v>0.7051706329778824</v>
+        <v>0.7051706329785929</v>
       </c>
       <c r="D14">
-        <v>0.4456231336329779</v>
+        <v>0.4456231336331768</v>
       </c>
       <c r="E14">
-        <v>0.2692462042610444</v>
+        <v>0.2692462042609094</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.86759466928481</v>
+        <v>14.86759466928441</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05314250331456272</v>
+        <v>0.05314250331460713</v>
       </c>
       <c r="J14">
-        <v>0.8771852018766921</v>
+        <v>0.8771852018766495</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.233342277689687</v>
+        <v>1.233342277689637</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.200117383487679</v>
+        <v>3.200117383487793</v>
       </c>
       <c r="C15">
-        <v>0.6943925803136324</v>
+        <v>0.6943925803140871</v>
       </c>
       <c r="D15">
-        <v>0.4398453984007915</v>
+        <v>0.4398453984008768</v>
       </c>
       <c r="E15">
-        <v>0.2658906968670109</v>
+        <v>0.2658906968668191</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.68549261903337</v>
+        <v>14.68549261903314</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.05250799936134776</v>
+        <v>0.0525079993614721</v>
       </c>
       <c r="J15">
-        <v>0.8644869752048194</v>
+        <v>0.8644869752047626</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.21632062017747</v>
+        <v>1.216320620177463</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.942639030140242</v>
+        <v>2.942639030140072</v>
       </c>
       <c r="C16">
-        <v>0.6343873396188542</v>
+        <v>0.6343873396183426</v>
       </c>
       <c r="D16">
-        <v>0.4073814996157523</v>
+        <v>0.4073814996156102</v>
       </c>
       <c r="E16">
-        <v>0.247027131787334</v>
+        <v>0.2470271317872772</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.66122125290278</v>
+        <v>13.66122125290249</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.04893974349933217</v>
+        <v>0.0489397434993375</v>
       </c>
       <c r="J16">
-        <v>0.7935288435536094</v>
+        <v>0.7935288435535881</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.120972013872517</v>
+        <v>1.120972013872503</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.789717768331229</v>
+        <v>2.789717768330888</v>
       </c>
       <c r="C17">
-        <v>0.598985417135026</v>
+        <v>0.5989854171355375</v>
       </c>
       <c r="D17">
-        <v>0.3879874678418673</v>
+        <v>0.3879874678424073</v>
       </c>
       <c r="E17">
-        <v>0.2357501853531261</v>
+        <v>0.2357501853533037</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.04837165788581</v>
+        <v>13.04837165788553</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.04680552053618925</v>
+        <v>0.04680552053616438</v>
       </c>
       <c r="J17">
-        <v>0.7514539556558475</v>
+        <v>0.7514539556557907</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.064247994639025</v>
+        <v>1.06424799463904</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.703413919694071</v>
+        <v>2.703413919694015</v>
       </c>
       <c r="C18">
-        <v>0.5790830880926308</v>
+        <v>0.5790830880915223</v>
       </c>
       <c r="D18">
-        <v>0.3770042335293908</v>
+        <v>0.3770042335288792</v>
       </c>
       <c r="E18">
-        <v>0.2293612428052469</v>
+        <v>0.2293612428052754</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.70095857778759</v>
+        <v>12.70095857778747</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.04559601645226863</v>
+        <v>0.04559601645224554</v>
       </c>
       <c r="J18">
-        <v>0.7277307064913998</v>
+        <v>0.7277307064914638</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.032203150237862</v>
+        <v>1.032203150237812</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.674459554294401</v>
+        <v>2.674459554293776</v>
       </c>
       <c r="C19">
-        <v>0.5724184626546673</v>
+        <v>0.572418462653701</v>
       </c>
       <c r="D19">
-        <v>0.3733132467379363</v>
+        <v>0.3733132467376805</v>
       </c>
       <c r="E19">
-        <v>0.2272137790272453</v>
+        <v>0.2272137790272382</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.58414941001624</v>
+        <v>12.58414941001618</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.04518941571477519</v>
+        <v>0.04518941571470592</v>
       </c>
       <c r="J19">
-        <v>0.7197753400887095</v>
+        <v>0.719775340088745</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.021447158990625</v>
+        <v>1.021447158990654</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.805821306998496</v>
+        <v>2.805821306998951</v>
       </c>
       <c r="C20">
-        <v>0.6027051888241033</v>
+        <v>0.6027051888240749</v>
       </c>
       <c r="D20">
-        <v>0.3900338024225789</v>
+        <v>0.3900338024225505</v>
       </c>
       <c r="E20">
-        <v>0.2369403312882952</v>
+        <v>0.2369403312883378</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.11307151694481</v>
+        <v>13.1130715169449</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.04703080035590901</v>
+        <v>0.04703080035591256</v>
       </c>
       <c r="J20">
-        <v>0.7558822982006603</v>
+        <v>0.7558822982007527</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.070224742610584</v>
+        <v>1.070224742610549</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.268325988795311</v>
+        <v>3.268325988795482</v>
       </c>
       <c r="C21">
-        <v>0.7103725791072861</v>
+        <v>0.7103725791079114</v>
       </c>
       <c r="D21">
-        <v>0.4484059752172698</v>
+        <v>0.4484059752177245</v>
       </c>
       <c r="E21">
-        <v>0.2708621955756172</v>
+        <v>0.2708621955757522</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.95528442961364</v>
+        <v>14.95528442961358</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.05344805216002158</v>
+        <v>0.05344805216005177</v>
       </c>
       <c r="J21">
-        <v>0.8833088041932911</v>
+        <v>0.8833088041933266</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.241546355941836</v>
+        <v>1.241546355941864</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.589900652287895</v>
+        <v>3.589900652288577</v>
       </c>
       <c r="C22">
-        <v>0.7861880575823079</v>
+        <v>0.7861880575828764</v>
       </c>
       <c r="D22">
-        <v>0.488546815737152</v>
+        <v>0.4885468157370099</v>
       </c>
       <c r="E22">
         <v>0.2941583696952037</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.21882968395448</v>
+        <v>16.21882968395477</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.05785111760308936</v>
+        <v>0.05785111760310002</v>
       </c>
       <c r="J22">
-        <v>0.9721833668310609</v>
+        <v>0.9721833668310325</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.416246781250265</v>
+        <v>3.416246781250152</v>
       </c>
       <c r="C23">
         <v>0.7451490295429153</v>
       </c>
       <c r="D23">
-        <v>0.4669148876937754</v>
+        <v>0.4669148876940881</v>
       </c>
       <c r="E23">
-        <v>0.2816072001775893</v>
+        <v>0.2816072001774046</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.53820429837521</v>
+        <v>15.53820429837532</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.05547930029382186</v>
+        <v>0.05547930029388581</v>
       </c>
       <c r="J23">
-        <v>0.9241618871266368</v>
+        <v>0.9241618871266581</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.296205187808795</v>
+        <v>1.296205187808837</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.798535920532004</v>
+        <v>2.798535920532231</v>
       </c>
       <c r="C24">
-        <v>0.6010220898036778</v>
+        <v>0.6010220898031093</v>
       </c>
       <c r="D24">
-        <v>0.3891081401579584</v>
+        <v>0.3891081401576173</v>
       </c>
       <c r="E24">
-        <v>0.2364019751518569</v>
+        <v>0.2364019751518356</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.08380552367419</v>
+        <v>13.08380552367404</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.04692889736527306</v>
+        <v>0.04692889736531214</v>
       </c>
       <c r="J24">
-        <v>0.7538788061113948</v>
+        <v>0.7538788061113451</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.067520906348001</v>
+        <v>1.067520906347994</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.193967756443271</v>
+        <v>2.193967756443385</v>
       </c>
       <c r="C25">
-        <v>0.462728738063845</v>
+        <v>0.4627287380638165</v>
       </c>
       <c r="D25">
-        <v>0.3115958108525803</v>
+        <v>0.3115958108529782</v>
       </c>
       <c r="E25">
-        <v>0.1912744963726567</v>
+        <v>0.1912744963726496</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.62600335261195</v>
+        <v>10.62600335261203</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03837996951415512</v>
+        <v>0.03837996951411604</v>
       </c>
       <c r="J25">
-        <v>0.5880224258817321</v>
+        <v>0.5880224258817606</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8425660633513061</v>
+        <v>0.8425660633512706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.784195294688715</v>
+        <v>1.784195294688487</v>
       </c>
       <c r="C2">
-        <v>0.3705169903376486</v>
+        <v>0.3705169903372507</v>
       </c>
       <c r="D2">
-        <v>0.2582291304099158</v>
+        <v>0.2582291304104274</v>
       </c>
       <c r="E2">
-        <v>0.1601496069243851</v>
+        <v>0.1601496069243922</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03247472235710092</v>
+        <v>0.03247472235711513</v>
       </c>
       <c r="J2">
-        <v>0.4760519795560327</v>
+        <v>0.4760519795560398</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6894079683565622</v>
+        <v>0.6894079683565408</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.521986725268391</v>
+        <v>1.521986725268221</v>
       </c>
       <c r="C3">
-        <v>0.3121371006760967</v>
+        <v>0.3121371006765514</v>
       </c>
       <c r="D3">
-        <v>0.2236937756015038</v>
+        <v>0.2236937756019302</v>
       </c>
       <c r="E3">
-        <v>0.1399825480205195</v>
+        <v>0.1399825480205656</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.81536052905642</v>
+        <v>7.815360529056477</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02864370776608993</v>
+        <v>0.02864370776598335</v>
       </c>
       <c r="J3">
-        <v>0.404588544195768</v>
+        <v>0.4045885441958035</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.591088644919509</v>
+        <v>0.5910886449195303</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>1.366908588358314</v>
       </c>
       <c r="C4">
-        <v>0.2778303436475937</v>
+        <v>0.2778303436479916</v>
       </c>
       <c r="D4">
-        <v>0.2031133915434111</v>
+        <v>0.2031133915433969</v>
       </c>
       <c r="E4">
-        <v>0.1279545257701606</v>
+        <v>0.12795452577015</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.152009823006495</v>
+        <v>7.152009823006523</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02635666131235226</v>
+        <v>0.02635666131236292</v>
       </c>
       <c r="J4">
-        <v>0.3623890514929684</v>
+        <v>0.3623890514929755</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5328146874993465</v>
+        <v>0.5328146874993109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.304981080766822</v>
+        <v>1.304981080766851</v>
       </c>
       <c r="C5">
-        <v>0.2641747976647366</v>
+        <v>0.264174797664694</v>
       </c>
       <c r="D5">
-        <v>0.1948605919563278</v>
+        <v>0.1948605919567825</v>
       </c>
       <c r="E5">
-        <v>0.1231290220867507</v>
+        <v>0.1231290220867223</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02543860475829085</v>
+        <v>0.02543860475826065</v>
       </c>
       <c r="J5">
-        <v>0.34555086177091</v>
+        <v>0.3455508617708816</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.294768744223887</v>
+        <v>1.29476874422383</v>
       </c>
       <c r="C6">
-        <v>0.261925255857733</v>
+        <v>0.2619252558573066</v>
       </c>
       <c r="D6">
-        <v>0.1934976829690953</v>
+        <v>0.1934976829691522</v>
       </c>
       <c r="E6">
-        <v>0.1223319870053778</v>
+        <v>0.1223319870053068</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.841149311789422</v>
+        <v>6.841149311789366</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0252869372037523</v>
+        <v>0.02528693720369546</v>
       </c>
       <c r="J6">
-        <v>0.3427748313628527</v>
+        <v>0.3427748313629451</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.366068548580586</v>
+        <v>1.366068548580955</v>
       </c>
       <c r="C7">
-        <v>0.2776449415003981</v>
+        <v>0.2776449415012507</v>
       </c>
       <c r="D7">
         <v>0.2030015778941276</v>
       </c>
       <c r="E7">
-        <v>0.1278891558073312</v>
+        <v>0.1278891558072246</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.148398662395778</v>
+        <v>7.148398662395834</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02634422670807268</v>
+        <v>0.0263442267081242</v>
       </c>
       <c r="J7">
-        <v>0.3621605928216667</v>
+        <v>0.3621605928217093</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5324987590706556</v>
+        <v>0.5324987590706343</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.692415271593575</v>
+        <v>1.692415271593745</v>
       </c>
       <c r="C8">
         <v>0.3500280237992683</v>
       </c>
       <c r="D8">
-        <v>0.2461768477830901</v>
+        <v>0.2461768477835449</v>
       </c>
       <c r="E8">
-        <v>0.1531139451862487</v>
+        <v>0.1531139451861705</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.53737480310599</v>
+        <v>8.537374803105962</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0.03113867154301175</v>
       </c>
       <c r="J8">
-        <v>0.4510216467544055</v>
+        <v>0.4510216467543913</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6550227421635171</v>
+        <v>0.6550227421634958</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.391110753127862</v>
+        <v>2.391110753127805</v>
       </c>
       <c r="C9">
-        <v>0.5075273584637046</v>
+        <v>0.507527358463193</v>
       </c>
       <c r="D9">
-        <v>0.3370261797872445</v>
+        <v>0.3370261797867329</v>
       </c>
       <c r="E9">
-        <v>0.2060902749516629</v>
+        <v>0.2060902749514923</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.43406032727236</v>
+        <v>11.43406032727253</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.04118823500308544</v>
+        <v>0.04118823500316182</v>
       </c>
       <c r="J9">
         <v>0.6420196131247451</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9160495934706319</v>
+        <v>0.9160495934706674</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.96032606693575</v>
+        <v>2.960326066935977</v>
       </c>
       <c r="C10">
-        <v>0.6384933017916126</v>
+        <v>0.6384933017926642</v>
       </c>
       <c r="D10">
-        <v>0.4096191519798253</v>
+        <v>0.4096191519797117</v>
       </c>
       <c r="E10">
-        <v>0.2483278733292309</v>
+        <v>0.2483278733292806</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.73188332281168</v>
+        <v>13.73188332281202</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.04918586414847681</v>
+        <v>0.04918586414839332</v>
       </c>
       <c r="J10">
-        <v>0.7983985587081222</v>
+        <v>0.7983985587082003</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.127528190077236</v>
+        <v>1.12752819007725</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.237312155296252</v>
+        <v>3.237312155296479</v>
       </c>
       <c r="C11">
-        <v>0.7031022455536231</v>
+        <v>0.70310224555422</v>
       </c>
       <c r="D11">
-        <v>0.4445155891079082</v>
+        <v>0.4445155891081924</v>
       </c>
       <c r="E11">
-        <v>0.268603021376471</v>
+        <v>0.268603021376336</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.8326914638713</v>
+        <v>14.83269146387141</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05302088702031504</v>
+        <v>0.05302088702030261</v>
       </c>
       <c r="J11">
-        <v>0.8747494253055379</v>
+        <v>0.8747494253055805</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.230078147186319</v>
+        <v>1.230078147186326</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.345439092002493</v>
+        <v>3.345439092002948</v>
       </c>
       <c r="C12">
-        <v>0.7284812564639083</v>
+        <v>0.7284812564651872</v>
       </c>
       <c r="D12">
-        <v>0.4580644505100224</v>
+        <v>0.4580644505093971</v>
       </c>
       <c r="E12">
-        <v>0.2764699146491338</v>
+        <v>0.2764699146490415</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.2595351389844</v>
+        <v>15.25953513898429</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.05450822812889911</v>
+        <v>0.0545082281288547</v>
       </c>
       <c r="J12">
-        <v>0.904600073158484</v>
+        <v>0.9046000731585124</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.270048747988554</v>
+        <v>1.270048747988497</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.321996006836514</v>
+        <v>3.321996006836457</v>
       </c>
       <c r="C13">
-        <v>0.7229712748114139</v>
+        <v>0.7229712748105044</v>
       </c>
       <c r="D13">
-        <v>0.4551303872682126</v>
+        <v>0.4551303872684116</v>
       </c>
       <c r="E13">
-        <v>0.2747665496603986</v>
+        <v>0.274766549660427</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.16712509990981</v>
+        <v>15.16712509990941</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.05418621579889482</v>
+        <v>0.05418621579888772</v>
       </c>
       <c r="J13">
-        <v>0.8981259531337429</v>
+        <v>0.8981259531336931</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.261385610177214</v>
+        <v>1.261385610177243</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.246138663337149</v>
+        <v>3.246138663337263</v>
       </c>
       <c r="C14">
-        <v>0.7051706329785929</v>
+        <v>0.7051706329778824</v>
       </c>
       <c r="D14">
-        <v>0.4456231336331768</v>
+        <v>0.4456231336329779</v>
       </c>
       <c r="E14">
-        <v>0.2692462042609094</v>
+        <v>0.2692462042610444</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.86759466928441</v>
+        <v>14.86759466928481</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05314250331460713</v>
+        <v>0.05314250331456272</v>
       </c>
       <c r="J14">
-        <v>0.8771852018766495</v>
+        <v>0.8771852018766921</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.233342277689637</v>
+        <v>1.233342277689687</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.200117383487793</v>
+        <v>3.200117383487679</v>
       </c>
       <c r="C15">
-        <v>0.6943925803140871</v>
+        <v>0.6943925803136324</v>
       </c>
       <c r="D15">
-        <v>0.4398453984008768</v>
+        <v>0.4398453984007915</v>
       </c>
       <c r="E15">
-        <v>0.2658906968668191</v>
+        <v>0.2658906968670109</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.68549261903314</v>
+        <v>14.68549261903337</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0525079993614721</v>
+        <v>0.05250799936134776</v>
       </c>
       <c r="J15">
-        <v>0.8644869752047626</v>
+        <v>0.8644869752048194</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.216320620177463</v>
+        <v>1.21632062017747</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.942639030140072</v>
+        <v>2.942639030140242</v>
       </c>
       <c r="C16">
-        <v>0.6343873396183426</v>
+        <v>0.6343873396188542</v>
       </c>
       <c r="D16">
-        <v>0.4073814996156102</v>
+        <v>0.4073814996157523</v>
       </c>
       <c r="E16">
-        <v>0.2470271317872772</v>
+        <v>0.247027131787334</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.66122125290249</v>
+        <v>13.66122125290278</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0489397434993375</v>
+        <v>0.04893974349933217</v>
       </c>
       <c r="J16">
-        <v>0.7935288435535881</v>
+        <v>0.7935288435536094</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.120972013872503</v>
+        <v>1.120972013872517</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.789717768330888</v>
+        <v>2.789717768331229</v>
       </c>
       <c r="C17">
-        <v>0.5989854171355375</v>
+        <v>0.598985417135026</v>
       </c>
       <c r="D17">
-        <v>0.3879874678424073</v>
+        <v>0.3879874678418673</v>
       </c>
       <c r="E17">
-        <v>0.2357501853533037</v>
+        <v>0.2357501853531261</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.04837165788553</v>
+        <v>13.04837165788581</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.04680552053616438</v>
+        <v>0.04680552053618925</v>
       </c>
       <c r="J17">
-        <v>0.7514539556557907</v>
+        <v>0.7514539556558475</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.06424799463904</v>
+        <v>1.064247994639025</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.703413919694015</v>
+        <v>2.703413919694071</v>
       </c>
       <c r="C18">
-        <v>0.5790830880915223</v>
+        <v>0.5790830880926308</v>
       </c>
       <c r="D18">
-        <v>0.3770042335288792</v>
+        <v>0.3770042335293908</v>
       </c>
       <c r="E18">
-        <v>0.2293612428052754</v>
+        <v>0.2293612428052469</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.70095857778747</v>
+        <v>12.70095857778759</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.04559601645224554</v>
+        <v>0.04559601645226863</v>
       </c>
       <c r="J18">
-        <v>0.7277307064914638</v>
+        <v>0.7277307064913998</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.032203150237812</v>
+        <v>1.032203150237862</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.674459554293776</v>
+        <v>2.674459554294401</v>
       </c>
       <c r="C19">
-        <v>0.572418462653701</v>
+        <v>0.5724184626546673</v>
       </c>
       <c r="D19">
-        <v>0.3733132467376805</v>
+        <v>0.3733132467379363</v>
       </c>
       <c r="E19">
-        <v>0.2272137790272382</v>
+        <v>0.2272137790272453</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.58414941001618</v>
+        <v>12.58414941001624</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.04518941571470592</v>
+        <v>0.04518941571477519</v>
       </c>
       <c r="J19">
-        <v>0.719775340088745</v>
+        <v>0.7197753400887095</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.021447158990654</v>
+        <v>1.021447158990625</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.805821306998951</v>
+        <v>2.805821306998496</v>
       </c>
       <c r="C20">
-        <v>0.6027051888240749</v>
+        <v>0.6027051888241033</v>
       </c>
       <c r="D20">
-        <v>0.3900338024225505</v>
+        <v>0.3900338024225789</v>
       </c>
       <c r="E20">
-        <v>0.2369403312883378</v>
+        <v>0.2369403312882952</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.1130715169449</v>
+        <v>13.11307151694481</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.04703080035591256</v>
+        <v>0.04703080035590901</v>
       </c>
       <c r="J20">
-        <v>0.7558822982007527</v>
+        <v>0.7558822982006603</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.070224742610549</v>
+        <v>1.070224742610584</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.268325988795482</v>
+        <v>3.268325988795311</v>
       </c>
       <c r="C21">
-        <v>0.7103725791079114</v>
+        <v>0.7103725791072861</v>
       </c>
       <c r="D21">
-        <v>0.4484059752177245</v>
+        <v>0.4484059752172698</v>
       </c>
       <c r="E21">
-        <v>0.2708621955757522</v>
+        <v>0.2708621955756172</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.95528442961358</v>
+        <v>14.95528442961364</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.05344805216005177</v>
+        <v>0.05344805216002158</v>
       </c>
       <c r="J21">
-        <v>0.8833088041933266</v>
+        <v>0.8833088041932911</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.241546355941864</v>
+        <v>1.241546355941836</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.589900652288577</v>
+        <v>3.589900652287895</v>
       </c>
       <c r="C22">
-        <v>0.7861880575828764</v>
+        <v>0.7861880575823079</v>
       </c>
       <c r="D22">
-        <v>0.4885468157370099</v>
+        <v>0.488546815737152</v>
       </c>
       <c r="E22">
         <v>0.2941583696952037</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.21882968395477</v>
+        <v>16.21882968395448</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.05785111760310002</v>
+        <v>0.05785111760308936</v>
       </c>
       <c r="J22">
-        <v>0.9721833668310325</v>
+        <v>0.9721833668310609</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.416246781250152</v>
+        <v>3.416246781250265</v>
       </c>
       <c r="C23">
         <v>0.7451490295429153</v>
       </c>
       <c r="D23">
-        <v>0.4669148876940881</v>
+        <v>0.4669148876937754</v>
       </c>
       <c r="E23">
-        <v>0.2816072001774046</v>
+        <v>0.2816072001775893</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.53820429837532</v>
+        <v>15.53820429837521</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.05547930029388581</v>
+        <v>0.05547930029382186</v>
       </c>
       <c r="J23">
-        <v>0.9241618871266581</v>
+        <v>0.9241618871266368</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.296205187808837</v>
+        <v>1.296205187808795</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.798535920532231</v>
+        <v>2.798535920532004</v>
       </c>
       <c r="C24">
-        <v>0.6010220898031093</v>
+        <v>0.6010220898036778</v>
       </c>
       <c r="D24">
-        <v>0.3891081401576173</v>
+        <v>0.3891081401579584</v>
       </c>
       <c r="E24">
-        <v>0.2364019751518356</v>
+        <v>0.2364019751518569</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.08380552367404</v>
+        <v>13.08380552367419</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.04692889736531214</v>
+        <v>0.04692889736527306</v>
       </c>
       <c r="J24">
-        <v>0.7538788061113451</v>
+        <v>0.7538788061113948</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.067520906347994</v>
+        <v>1.067520906348001</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.193967756443385</v>
+        <v>2.193967756443271</v>
       </c>
       <c r="C25">
-        <v>0.4627287380638165</v>
+        <v>0.462728738063845</v>
       </c>
       <c r="D25">
-        <v>0.3115958108529782</v>
+        <v>0.3115958108525803</v>
       </c>
       <c r="E25">
-        <v>0.1912744963726496</v>
+        <v>0.1912744963726567</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.62600335261203</v>
+        <v>10.62600335261195</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03837996951411604</v>
+        <v>0.03837996951415512</v>
       </c>
       <c r="J25">
-        <v>0.5880224258817606</v>
+        <v>0.5880224258817321</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8425660633512706</v>
+        <v>0.8425660633513061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.784195294688487</v>
+        <v>1.783778330068003</v>
       </c>
       <c r="C2">
-        <v>0.3705169903372507</v>
+        <v>0.370301251529412</v>
       </c>
       <c r="D2">
-        <v>0.2582291304104274</v>
+        <v>0.2581998402625061</v>
       </c>
       <c r="E2">
-        <v>0.1601496069243922</v>
+        <v>0.1601220591034505</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.923425568020065</v>
+        <v>2.907163764986507</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.966580092868156</v>
       </c>
       <c r="I2">
-        <v>0.03247472235711513</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4760519795560398</v>
+        <v>0.03246525695960045</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4759072867289262</v>
       </c>
       <c r="L2">
-        <v>0.6894079683565408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.6893091889322918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.521986725268221</v>
+        <v>1.521738634915181</v>
       </c>
       <c r="C3">
-        <v>0.3121371006765514</v>
+        <v>0.3119949668120228</v>
       </c>
       <c r="D3">
-        <v>0.2236937756019302</v>
+        <v>0.2236744846386216</v>
       </c>
       <c r="E3">
-        <v>0.1399825480205656</v>
+        <v>0.1399622849938034</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.815360529056477</v>
+        <v>2.537501466292184</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.235585948659292</v>
       </c>
       <c r="I3">
-        <v>0.02864370776598335</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4045885441958035</v>
+        <v>0.02863648391014095</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4044993107047503</v>
       </c>
       <c r="L3">
-        <v>0.5910886449195303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.5910321921878392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366908588358314</v>
+        <v>1.366741699850223</v>
       </c>
       <c r="C4">
-        <v>0.2778303436479916</v>
+        <v>0.277725823637553</v>
       </c>
       <c r="D4">
-        <v>0.2031133915433969</v>
+        <v>0.2030991205668187</v>
       </c>
       <c r="E4">
-        <v>0.12795452577015</v>
+        <v>0.127938321166603</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.152009823006523</v>
+        <v>2.31615263158946</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.79799706067277</v>
       </c>
       <c r="I4">
-        <v>0.02635666131236292</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3623890514929755</v>
+        <v>0.02635075648912277</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3623269964753106</v>
       </c>
       <c r="L4">
-        <v>0.5328146874993109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.5327781066106283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.304981080766851</v>
+        <v>1.304842580707117</v>
       </c>
       <c r="C5">
-        <v>0.264174797664694</v>
+        <v>0.2640840281687957</v>
       </c>
       <c r="D5">
-        <v>0.1948605919567825</v>
+        <v>0.1948481447177102</v>
       </c>
       <c r="E5">
-        <v>0.1231290220867223</v>
+        <v>0.1231143954493277</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.885249019434809</v>
+        <v>2.227127761668953</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.622031994322043</v>
       </c>
       <c r="I5">
-        <v>0.02543860475826065</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3455508617708816</v>
+        <v>0.02543322829866845</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3454984461298949</v>
       </c>
       <c r="L5">
-        <v>0.5095166362424095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.5094868867516311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.29476874422383</v>
+        <v>1.294634698695404</v>
       </c>
       <c r="C6">
-        <v>0.2619252558573066</v>
+        <v>0.2618366828620537</v>
       </c>
       <c r="D6">
-        <v>0.1934976829691522</v>
+        <v>0.1934855266731574</v>
       </c>
       <c r="E6">
-        <v>0.1223319870053068</v>
+        <v>0.1223176185232369</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.841149311789366</v>
+        <v>2.21240990106844</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.592942717968441</v>
       </c>
       <c r="I6">
-        <v>0.02528693720369546</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3427748313629451</v>
+        <v>0.0252816480588347</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.342723937163484</v>
       </c>
       <c r="L6">
-        <v>0.5056730499770623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.5056443653233487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.366068548580955</v>
+        <v>1.365902060833008</v>
       </c>
       <c r="C7">
-        <v>0.2776449415012507</v>
+        <v>0.2775406129293714</v>
       </c>
       <c r="D7">
-        <v>0.2030015778941276</v>
+        <v>0.2029873323416354</v>
       </c>
       <c r="E7">
-        <v>0.1278891558072246</v>
+        <v>0.1278729727588441</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.148398662395834</v>
+        <v>2.314947540594147</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.795614976606686</v>
       </c>
       <c r="I7">
-        <v>0.0263442267081242</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3621605928217093</v>
+        <v>0.02633832904146871</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.362098673270296</v>
       </c>
       <c r="L7">
-        <v>0.5324987590706343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.5324622751188031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.692415271593745</v>
+        <v>1.6920618341384</v>
       </c>
       <c r="C8">
-        <v>0.3500280237992683</v>
+        <v>0.3498394548652755</v>
       </c>
       <c r="D8">
-        <v>0.2461768477835449</v>
+        <v>0.2461512776717143</v>
       </c>
       <c r="E8">
-        <v>0.1531139451861705</v>
+        <v>0.1530890142875165</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.537374803105962</v>
+        <v>2.778383728881693</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.711896436563308</v>
       </c>
       <c r="I8">
-        <v>0.03113867154301175</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4510216467543913</v>
+        <v>0.03112999445332143</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4508976968451819</v>
       </c>
       <c r="L8">
-        <v>0.6550227421634958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.6549400074915326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.391110753127805</v>
+        <v>2.390157366502422</v>
       </c>
       <c r="C9">
-        <v>0.507527358463193</v>
+        <v>0.5070945775911184</v>
       </c>
       <c r="D9">
-        <v>0.3370261797867329</v>
+        <v>0.3369659860853886</v>
       </c>
       <c r="E9">
-        <v>0.2060902749514923</v>
+        <v>0.2060431989498852</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.43406032727253</v>
+        <v>3.744427312973556</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.622934803076021</v>
       </c>
       <c r="I9">
-        <v>0.04118823500316182</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6420196131247451</v>
+        <v>0.04117333843130311</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6417026467657223</v>
       </c>
       <c r="L9">
-        <v>0.9160495934706674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.9158117949386408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.960326066935977</v>
+        <v>2.958686307809387</v>
       </c>
       <c r="C10">
-        <v>0.6384933017926642</v>
+        <v>0.6377975481044871</v>
       </c>
       <c r="D10">
-        <v>0.4096191519797117</v>
+        <v>0.4095190849815822</v>
       </c>
       <c r="E10">
-        <v>0.2483278733292806</v>
+        <v>0.2482581325271838</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.73188332281202</v>
+        <v>4.510397578437363</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.138847553469702</v>
       </c>
       <c r="I10">
-        <v>0.04918586414839332</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7983985587082003</v>
+        <v>0.04916531136105817</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7978646281132313</v>
       </c>
       <c r="L10">
-        <v>1.12752819007725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.127107039131928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.237312155296479</v>
+        <v>3.23527217639321</v>
       </c>
       <c r="C11">
-        <v>0.70310224555422</v>
+        <v>0.7022569104497336</v>
       </c>
       <c r="D11">
-        <v>0.4445155891081924</v>
+        <v>0.4443918597742709</v>
       </c>
       <c r="E11">
-        <v>0.268603021376336</v>
+        <v>0.2685203975237656</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.83269146387141</v>
+        <v>4.877246841679039</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.865017798092083</v>
       </c>
       <c r="I11">
-        <v>0.05302088702030261</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8747494253055805</v>
+        <v>0.05299730751966969</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8740898797163794</v>
       </c>
       <c r="L11">
-        <v>1.230078147186326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.229548228634165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.345439092002948</v>
+        <v>3.343230667709463</v>
       </c>
       <c r="C12">
-        <v>0.7284812564651872</v>
+        <v>0.7275735313826601</v>
       </c>
       <c r="D12">
-        <v>0.4580644505093971</v>
+        <v>0.4579306660844793</v>
       </c>
       <c r="E12">
-        <v>0.2764699146490415</v>
+        <v>0.2763818918412397</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.25953513898429</v>
+        <v>5.019477161507893</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.14658113535916</v>
       </c>
       <c r="I12">
-        <v>0.0545082281288547</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9046000731585124</v>
+        <v>0.05448340963676657</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9038877945840085</v>
       </c>
       <c r="L12">
-        <v>1.270048747988497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.269472721619323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.321996006836457</v>
+        <v>3.319824695534749</v>
       </c>
       <c r="C13">
-        <v>0.7229712748105044</v>
+        <v>0.722077270604899</v>
       </c>
       <c r="D13">
-        <v>0.4551303872684116</v>
+        <v>0.4549988231107136</v>
       </c>
       <c r="E13">
-        <v>0.274766549660427</v>
+        <v>0.2746797158010992</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.16712509990941</v>
+        <v>4.988685653405014</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.08562440426402</v>
       </c>
       <c r="I13">
-        <v>0.05418621579888772</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8981259531336931</v>
+        <v>0.05416166883228435</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8974252869361834</v>
       </c>
       <c r="L13">
-        <v>1.261385610177243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.260819758165283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.246138663337263</v>
+        <v>3.244085194550053</v>
       </c>
       <c r="C14">
-        <v>0.7051706329778824</v>
+        <v>0.7043202902577548</v>
       </c>
       <c r="D14">
-        <v>0.4456231336329779</v>
+        <v>0.4454986011309643</v>
       </c>
       <c r="E14">
-        <v>0.2692462042610444</v>
+        <v>0.2691631477362577</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.86759466928481</v>
+        <v>4.88887744271392</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.888041651336096</v>
       </c>
       <c r="I14">
-        <v>0.05314250331456272</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8771852018766921</v>
+        <v>0.05311882393880119</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8765214305018674</v>
       </c>
       <c r="L14">
-        <v>1.233342277689687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.232808673394445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.200117383487679</v>
+        <v>3.198133745624659</v>
       </c>
       <c r="C15">
-        <v>0.6943925803136324</v>
+        <v>0.6935681817997192</v>
       </c>
       <c r="D15">
-        <v>0.4398453984007915</v>
+        <v>0.4397250195836193</v>
       </c>
       <c r="E15">
-        <v>0.2658906968670109</v>
+        <v>0.2658098808351568</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.68549261903337</v>
+        <v>4.828195880574754</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.767917731799855</v>
       </c>
       <c r="I15">
-        <v>0.05250799936134776</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8644869752048194</v>
+        <v>0.05248483831855388</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8638450840931995</v>
       </c>
       <c r="L15">
-        <v>1.21632062017747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.215806082131351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.942639030140242</v>
+        <v>2.94102332574505</v>
       </c>
       <c r="C16">
-        <v>0.6343873396188542</v>
+        <v>0.6337006465005572</v>
       </c>
       <c r="D16">
-        <v>0.4073814996157523</v>
+        <v>0.4072828446159917</v>
       </c>
       <c r="E16">
-        <v>0.247027131787334</v>
+        <v>0.2469581695419407</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.66122125290278</v>
+        <v>4.486846928788253</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.092232478621384</v>
       </c>
       <c r="I16">
-        <v>0.04893974349933217</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7935288435536094</v>
+        <v>0.04891937725485995</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7930024797100828</v>
       </c>
       <c r="L16">
-        <v>1.120972013872517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.120557361986364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.789717768331229</v>
+        <v>2.788302655618395</v>
       </c>
       <c r="C17">
-        <v>0.598985417135026</v>
+        <v>0.5983746497686582</v>
       </c>
       <c r="D17">
-        <v>0.3879874678418673</v>
+        <v>0.3879005434687883</v>
       </c>
       <c r="E17">
-        <v>0.2357501853531261</v>
+        <v>0.2356877455728394</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.04837165788581</v>
+        <v>4.282581781078562</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.68793553326222</v>
       </c>
       <c r="I17">
-        <v>0.04680552053618925</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7514539556558475</v>
+        <v>0.04678673599875971</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7509907790496015</v>
       </c>
       <c r="L17">
-        <v>1.064247994639025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.06388735070351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.703413919694071</v>
+        <v>2.702106222128236</v>
       </c>
       <c r="C18">
-        <v>0.5790830880926308</v>
+        <v>0.5785132809136257</v>
       </c>
       <c r="D18">
-        <v>0.3770042335293908</v>
+        <v>0.3769235594475902</v>
       </c>
       <c r="E18">
-        <v>0.2293612428052469</v>
+        <v>0.2293023240276</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.70095857778759</v>
+        <v>4.16677865937109</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.458742767763084</v>
       </c>
       <c r="I18">
-        <v>0.04559601645226863</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7277307064913998</v>
+        <v>0.04557810109748317</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7273014381965552</v>
       </c>
       <c r="L18">
-        <v>1.032203150237862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.031871280425207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.674459554294401</v>
+        <v>2.673186965370292</v>
       </c>
       <c r="C19">
-        <v>0.5724184626546673</v>
+        <v>0.5718620947377246</v>
       </c>
       <c r="D19">
-        <v>0.3733132467379363</v>
+        <v>0.373234611031279</v>
       </c>
       <c r="E19">
-        <v>0.2272137790272453</v>
+        <v>0.227156016524745</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.58414941001624</v>
+        <v>4.127841210564725</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.381681682966956</v>
       </c>
       <c r="I19">
-        <v>0.04518941571477519</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7197753400887095</v>
+        <v>0.04517178836471558</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7193571669475247</v>
       </c>
       <c r="L19">
-        <v>1.021447158990625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.021124670217866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.805821306998496</v>
+        <v>2.804385690968502</v>
       </c>
       <c r="C20">
-        <v>0.6027051888241033</v>
+        <v>0.6020866284437147</v>
       </c>
       <c r="D20">
-        <v>0.3900338024225789</v>
+        <v>0.3899456825611765</v>
       </c>
       <c r="E20">
-        <v>0.2369403312882952</v>
+        <v>0.2368772219560498</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.11307151694481</v>
+        <v>4.304147448086468</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.730618518774833</v>
       </c>
       <c r="I20">
-        <v>0.04703080035590901</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7558822982006603</v>
+        <v>0.04701185181023426</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7554126552549221</v>
       </c>
       <c r="L20">
-        <v>1.070224742610584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.069858594251336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.268325988795311</v>
+        <v>3.266238406558841</v>
       </c>
       <c r="C21">
-        <v>0.7103725791072861</v>
+        <v>0.7095095819331618</v>
       </c>
       <c r="D21">
-        <v>0.4484059752172698</v>
+        <v>0.4482794100237015</v>
       </c>
       <c r="E21">
-        <v>0.2708621955756172</v>
+        <v>0.2707780451739765</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.95528442961364</v>
+        <v>4.918097529627232</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.945885863657054</v>
       </c>
       <c r="I21">
-        <v>0.05344805216002158</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8833088041932911</v>
+        <v>0.05342412074519132</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8826343487215809</v>
       </c>
       <c r="L21">
-        <v>1.241546355941836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.241003425723626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.589900652287895</v>
+        <v>3.587285318268812</v>
       </c>
       <c r="C22">
-        <v>0.7861880575823079</v>
+        <v>0.7851307270073562</v>
       </c>
       <c r="D22">
-        <v>0.488546815737152</v>
+        <v>0.4883885103142518</v>
       </c>
       <c r="E22">
-        <v>0.2941583696952037</v>
+        <v>0.2940573161059064</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.21882968395448</v>
+        <v>5.339092335720011</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.7793399622916</v>
       </c>
       <c r="I22">
-        <v>0.05785111760308936</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9721833668310609</v>
+        <v>0.05782336679532207</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9713439702828168</v>
       </c>
       <c r="L22">
-        <v>1.360291305350941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.359603186993127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.416246781250265</v>
+        <v>3.413924251555557</v>
       </c>
       <c r="C23">
-        <v>0.7451490295429153</v>
+        <v>0.7441992032283338</v>
       </c>
       <c r="D23">
-        <v>0.4669148876937754</v>
+        <v>0.4667742598497853</v>
       </c>
       <c r="E23">
-        <v>0.2816072001775893</v>
+        <v>0.2815155231048152</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.53820429837521</v>
+        <v>5.11232844289475</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.33039823900128</v>
       </c>
       <c r="I23">
-        <v>0.05547930029382186</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9241618871266368</v>
+        <v>0.05545365166947391</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9234139261533016</v>
       </c>
       <c r="L23">
-        <v>1.296205187808795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.295597826698838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.798535920532004</v>
+        <v>2.797109598384623</v>
       </c>
       <c r="C24">
-        <v>0.6010220898036778</v>
+        <v>0.6004070609234304</v>
       </c>
       <c r="D24">
-        <v>0.3891081401579584</v>
+        <v>0.3890205622942915</v>
       </c>
       <c r="E24">
-        <v>0.2364019751518569</v>
+        <v>0.2363391692263974</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.08380552367419</v>
+        <v>4.294392575913065</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.711311535219863</v>
       </c>
       <c r="I24">
-        <v>0.04692889736527306</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7538788061113948</v>
+        <v>0.04691002309092518</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7534120940410247</v>
       </c>
       <c r="L24">
-        <v>1.067520906348001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.06715725353807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.193967756443271</v>
+        <v>2.193210601335295</v>
       </c>
       <c r="C25">
-        <v>0.462728738063845</v>
+        <v>0.4623735526780308</v>
       </c>
       <c r="D25">
-        <v>0.3115958108525803</v>
+        <v>0.3115468971130326</v>
       </c>
       <c r="E25">
-        <v>0.1912744963726567</v>
+        <v>0.1912342286057296</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.62600335261195</v>
+        <v>3.474993861609846</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.089828216995045</v>
       </c>
       <c r="I25">
-        <v>0.03837996951415512</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5880224258817321</v>
+        <v>0.03836689007184191</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5877680587259775</v>
       </c>
       <c r="L25">
-        <v>0.8425660633513061</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.8423796995400892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.783778330068003</v>
+        <v>2.596341105399688</v>
       </c>
       <c r="C2">
-        <v>0.370301251529412</v>
+        <v>0.2718523584575507</v>
       </c>
       <c r="D2">
-        <v>0.2581998402625061</v>
+        <v>0.2158409307593274</v>
       </c>
       <c r="E2">
-        <v>0.1601220591034505</v>
+        <v>0.04408553242958124</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.907163764986507</v>
+        <v>0.000870823351917164</v>
       </c>
       <c r="H2">
-        <v>5.966580092868156</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03246525695960045</v>
+        <v>0.03505560656698847</v>
       </c>
       <c r="K2">
-        <v>0.4759072867289262</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2522229174483215</v>
       </c>
       <c r="M2">
-        <v>0.6893091889322918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4937050250619777</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.610646838214251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.521738634915181</v>
+        <v>2.324071951522455</v>
       </c>
       <c r="C3">
-        <v>0.3119949668120228</v>
+        <v>0.229190101196977</v>
       </c>
       <c r="D3">
-        <v>0.2236744846386216</v>
+        <v>0.2039292298122888</v>
       </c>
       <c r="E3">
-        <v>0.1399622849938034</v>
+        <v>0.04292632296137988</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.537501466292184</v>
+        <v>0.0008840426818617884</v>
       </c>
       <c r="H3">
-        <v>5.235585948659292</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02863648391014095</v>
+        <v>0.0309657624373223</v>
       </c>
       <c r="K3">
-        <v>0.4044993107047503</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2372040132242503</v>
       </c>
       <c r="M3">
-        <v>0.5910321921878392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4479479390206507</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.64212146184272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366741699850223</v>
+        <v>2.165451131831219</v>
       </c>
       <c r="C4">
-        <v>0.277725823637553</v>
+        <v>0.2041978117567567</v>
       </c>
       <c r="D4">
-        <v>0.2030991205668187</v>
+        <v>0.1969322727116491</v>
       </c>
       <c r="E4">
-        <v>0.127938321166603</v>
+        <v>0.04223673123372063</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.31615263158946</v>
+        <v>0.0008923078296452553</v>
       </c>
       <c r="H4">
-        <v>4.79799706067277</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02635075648912277</v>
+        <v>0.02852014273803505</v>
       </c>
       <c r="K4">
-        <v>0.3623269964753106</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2285581048436356</v>
       </c>
       <c r="M4">
-        <v>0.5327781066106283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.421364071881726</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>8.062166240561197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.304842580707117</v>
+        <v>2.102728303453944</v>
       </c>
       <c r="C5">
-        <v>0.2640840281687957</v>
+        <v>0.1942722285228058</v>
       </c>
       <c r="D5">
-        <v>0.1948481447177102</v>
+        <v>0.1941527603941182</v>
       </c>
       <c r="E5">
-        <v>0.1231143954493277</v>
+        <v>0.04196027654923196</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.227127761668953</v>
+        <v>0.000895717718437094</v>
       </c>
       <c r="H5">
-        <v>4.622031994322043</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02543322829866845</v>
+        <v>0.02753652547391638</v>
       </c>
       <c r="K5">
-        <v>0.3454984461298949</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2251667518139087</v>
       </c>
       <c r="M5">
-        <v>0.5094868867516311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4108715934256892</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.828954691943096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.294634698695404</v>
+        <v>2.092422643931911</v>
       </c>
       <c r="C6">
-        <v>0.2618366828620537</v>
+        <v>0.192638567282799</v>
       </c>
       <c r="D6">
-        <v>0.1934855266731574</v>
+        <v>0.1936953476287044</v>
       </c>
       <c r="E6">
-        <v>0.1223176185232369</v>
+        <v>0.0419146195649045</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.21240990106844</v>
+        <v>0.0008962865716104553</v>
       </c>
       <c r="H6">
-        <v>4.592942717968441</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0252816480588347</v>
+        <v>0.02737388735128832</v>
       </c>
       <c r="K6">
-        <v>0.342723937163484</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2246112403677003</v>
       </c>
       <c r="M6">
-        <v>0.5056443653233487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4091488379813129</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.790403176335474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365902060833008</v>
+        <v>2.164597759851176</v>
       </c>
       <c r="C7">
-        <v>0.2775406129293714</v>
+        <v>0.2040629567227654</v>
       </c>
       <c r="D7">
-        <v>0.2029873323416354</v>
+        <v>0.1968945062726277</v>
       </c>
       <c r="E7">
-        <v>0.1278729727588441</v>
+        <v>0.04223298565674494</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.314947540594147</v>
+        <v>0.0008923536417578284</v>
       </c>
       <c r="H7">
-        <v>4.795614976606686</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02633832904146871</v>
+        <v>0.02850682902643342</v>
       </c>
       <c r="K7">
-        <v>0.362098673270296</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2285118496198209</v>
       </c>
       <c r="M7">
-        <v>0.5324622751188031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.421221235929842</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>8.059009131206722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.6920618341384</v>
+        <v>2.500537054392794</v>
       </c>
       <c r="C8">
-        <v>0.3498394548652755</v>
+        <v>0.2568649058476353</v>
       </c>
       <c r="D8">
-        <v>0.2461512776717143</v>
+        <v>0.2116629741732226</v>
       </c>
       <c r="E8">
-        <v>0.1530890142875165</v>
+        <v>0.04368058305341638</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.778383728881693</v>
+        <v>0.0008753534141137117</v>
       </c>
       <c r="H8">
-        <v>5.711896436563308</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03112999445332143</v>
+        <v>0.03362957336932482</v>
       </c>
       <c r="K8">
-        <v>0.4508976968451819</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2469166673181746</v>
       </c>
       <c r="M8">
-        <v>0.6549400074915326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4775891186380079</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.273274200488288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.390157366502422</v>
+        <v>3.239528134941338</v>
       </c>
       <c r="C9">
-        <v>0.5070945775911184</v>
+        <v>0.372254436441267</v>
       </c>
       <c r="D9">
-        <v>0.3369659860853886</v>
+        <v>0.2435494591814518</v>
       </c>
       <c r="E9">
-        <v>0.2060431989498852</v>
+        <v>0.04674912288587585</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.744427312973556</v>
+        <v>0.0008429616447620737</v>
       </c>
       <c r="H9">
-        <v>7.622934803076021</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04117333843130311</v>
+        <v>0.04438092066509114</v>
       </c>
       <c r="K9">
-        <v>0.6417026467657223</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2882513851835569</v>
       </c>
       <c r="M9">
-        <v>0.9158117949386408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6021866502621407</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.80146318361861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.958686307809387</v>
+        <v>3.852028662672694</v>
       </c>
       <c r="C10">
-        <v>0.6377975481044871</v>
+        <v>0.4681458768072559</v>
       </c>
       <c r="D10">
-        <v>0.4095190849815822</v>
+        <v>0.2694407480273924</v>
       </c>
       <c r="E10">
-        <v>0.2482581325271838</v>
+        <v>0.04923495945678091</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.510397578437363</v>
+        <v>0.0008193557933347704</v>
       </c>
       <c r="H10">
-        <v>9.138847553469702</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04916531136105817</v>
+        <v>0.05302377506057354</v>
       </c>
       <c r="K10">
-        <v>0.7978646281132313</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3229395231969647</v>
       </c>
       <c r="M10">
-        <v>1.127107039131928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7057599281805409</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.79865827207686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.23527217639321</v>
+        <v>4.151670662492279</v>
       </c>
       <c r="C11">
-        <v>0.7022569104497336</v>
+        <v>0.5153093558607225</v>
       </c>
       <c r="D11">
-        <v>0.4443918597742709</v>
+        <v>0.2819456218136338</v>
       </c>
       <c r="E11">
-        <v>0.2685203975237656</v>
+        <v>0.05044255161520272</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.877246841679039</v>
+        <v>0.0008085506120885283</v>
       </c>
       <c r="H11">
-        <v>9.865017798092083</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05299730751966969</v>
+        <v>0.05720798587952558</v>
       </c>
       <c r="K11">
-        <v>0.8740898797163794</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3399761456832664</v>
       </c>
       <c r="M11">
-        <v>1.229548228634165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7564759982508917</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.75170601460815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.343230667709463</v>
+        <v>4.26878411628087</v>
       </c>
       <c r="C12">
-        <v>0.7275735313826601</v>
+        <v>0.5337992649752721</v>
       </c>
       <c r="D12">
-        <v>0.4579306660844793</v>
+        <v>0.2868053941925979</v>
       </c>
       <c r="E12">
-        <v>0.2763818918412397</v>
+        <v>0.05091372609097977</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.019477161507893</v>
+        <v>0.0008044380421052911</v>
       </c>
       <c r="H12">
-        <v>10.14658113535916</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05448340963676657</v>
+        <v>0.05883851737641876</v>
       </c>
       <c r="K12">
-        <v>0.9038877945840085</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3466417265290005</v>
       </c>
       <c r="M12">
-        <v>1.269472721619323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7763029046871068</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.12048525709326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.319824695534749</v>
+        <v>4.243388068791774</v>
       </c>
       <c r="C13">
-        <v>0.722077270604899</v>
+        <v>0.529786880151903</v>
       </c>
       <c r="D13">
-        <v>0.4549988231107136</v>
+        <v>0.2857528576467132</v>
       </c>
       <c r="E13">
-        <v>0.2746797158010992</v>
+        <v>0.05081158012221376</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.988685653405014</v>
+        <v>0.000805324892247853</v>
       </c>
       <c r="H13">
-        <v>10.08562440426402</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05416166883228435</v>
+        <v>0.05848512478596746</v>
       </c>
       <c r="K13">
-        <v>0.8974252869361834</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3451960376963967</v>
       </c>
       <c r="M13">
-        <v>1.260819758165283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7720032626034126</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.04068456240606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.244085194550053</v>
+        <v>4.161228527003686</v>
       </c>
       <c r="C14">
-        <v>0.7043202902577548</v>
+        <v>0.5168171112121343</v>
       </c>
       <c r="D14">
-        <v>0.4454986011309643</v>
+        <v>0.2823428149567917</v>
       </c>
       <c r="E14">
-        <v>0.2691631477362577</v>
+        <v>0.05048101845092212</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.88887744271392</v>
+        <v>0.0008082127600251212</v>
       </c>
       <c r="H14">
-        <v>9.888041651336096</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05311882393880119</v>
+        <v>0.05734114358985565</v>
       </c>
       <c r="K14">
-        <v>0.8765214305018674</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.340520017088707</v>
       </c>
       <c r="M14">
-        <v>1.232808673394445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7580940288606755</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.78187815751488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.198133745624659</v>
+        <v>4.111399048825604</v>
       </c>
       <c r="C15">
-        <v>0.6935681817997192</v>
+        <v>0.508958872755727</v>
       </c>
       <c r="D15">
-        <v>0.4397250195836193</v>
+        <v>0.2802709346101864</v>
       </c>
       <c r="E15">
-        <v>0.2658098808351568</v>
+        <v>0.05028044393587461</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.828195880574754</v>
+        <v>0.0008099785677551691</v>
       </c>
       <c r="H15">
-        <v>9.767917731799855</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05248483831855388</v>
+        <v>0.05664674839809436</v>
       </c>
       <c r="K15">
-        <v>0.8638450840931995</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3376848273099853</v>
       </c>
       <c r="M15">
-        <v>1.215806082131351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7496586814193975</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.62442733509886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.94102332574505</v>
+        <v>3.832919511667114</v>
       </c>
       <c r="C16">
-        <v>0.6337006465005572</v>
+        <v>0.4651446236541688</v>
       </c>
       <c r="D16">
-        <v>0.4072828446159917</v>
+        <v>0.2686397632556634</v>
       </c>
       <c r="E16">
-        <v>0.2469581695419407</v>
+        <v>0.0491578141122524</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.486846928788253</v>
+        <v>0.0008200596821411866</v>
       </c>
       <c r="H16">
-        <v>9.092232478621384</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04891937725485995</v>
+        <v>0.05275619261376008</v>
       </c>
       <c r="K16">
-        <v>0.7930024797100828</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.321854132763491</v>
       </c>
       <c r="M16">
-        <v>1.120557361986364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7025263604317473</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.73738970448457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.788302655618395</v>
+        <v>3.667866721755502</v>
       </c>
       <c r="C17">
-        <v>0.5983746497686582</v>
+        <v>0.4392509672946687</v>
       </c>
       <c r="D17">
-        <v>0.3879005434687883</v>
+        <v>0.261703526636353</v>
       </c>
       <c r="E17">
-        <v>0.2356877455728394</v>
+        <v>0.04849061082272499</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.282581781078562</v>
+        <v>0.0008262196981937698</v>
       </c>
       <c r="H17">
-        <v>8.68793553326222</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04678673599875971</v>
+        <v>0.05044041622737083</v>
       </c>
       <c r="K17">
-        <v>0.7509907790496015</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3124861054265438</v>
       </c>
       <c r="M17">
-        <v>1.06388735070351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6746016734716207</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.20558226731524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.702106222128236</v>
+        <v>3.574866303896101</v>
       </c>
       <c r="C18">
-        <v>0.5785132809136257</v>
+        <v>0.4246823968422291</v>
       </c>
       <c r="D18">
-        <v>0.3769235594475902</v>
+        <v>0.2577809940785158</v>
       </c>
       <c r="E18">
-        <v>0.2293023240276</v>
+        <v>0.04811387615432938</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.16677865937109</v>
+        <v>0.0008297572878901156</v>
       </c>
       <c r="H18">
-        <v>8.458742767763084</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04557810109748317</v>
+        <v>0.04913151706589147</v>
       </c>
       <c r="K18">
-        <v>0.7273014381965552</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.30721379908708</v>
       </c>
       <c r="M18">
-        <v>1.031871280425207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6588716143957072</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.90378621101624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.673186965370292</v>
+        <v>3.543693145928614</v>
       </c>
       <c r="C19">
-        <v>0.5718620947377246</v>
+        <v>0.4198022547914491</v>
       </c>
       <c r="D19">
-        <v>0.373234611031279</v>
+        <v>0.2564638568622684</v>
       </c>
       <c r="E19">
-        <v>0.227156016524745</v>
+        <v>0.04798744989881332</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.127841210564725</v>
+        <v>0.0008309544193323068</v>
       </c>
       <c r="H19">
-        <v>8.381681682966956</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04517178836471558</v>
+        <v>0.04869204679117445</v>
       </c>
       <c r="K19">
-        <v>0.7193571669475247</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3054476894458276</v>
       </c>
       <c r="M19">
-        <v>1.021124670217866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6535997948346477</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.80226467292883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.804385690968502</v>
+        <v>3.685232655455991</v>
       </c>
       <c r="C20">
-        <v>0.6020866284437147</v>
+        <v>0.4419729883312584</v>
       </c>
       <c r="D20">
-        <v>0.3899456825611765</v>
+        <v>0.2624348342023666</v>
       </c>
       <c r="E20">
-        <v>0.2368772219560498</v>
+        <v>0.04856089031019728</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.304147448086468</v>
+        <v>0.0008255645963672077</v>
       </c>
       <c r="H20">
-        <v>8.730618518774833</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04701185181023426</v>
+        <v>0.05068448278234783</v>
       </c>
       <c r="K20">
-        <v>0.7554126552549221</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3134711287442258</v>
       </c>
       <c r="M20">
-        <v>1.069858594251336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6775393123113531</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.26176148561063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.266238406558841</v>
+        <v>4.185256175856239</v>
       </c>
       <c r="C21">
-        <v>0.7095095819331618</v>
+        <v>0.5206084431285376</v>
       </c>
       <c r="D21">
-        <v>0.4482794100237015</v>
+        <v>0.2833408699569731</v>
       </c>
       <c r="E21">
-        <v>0.2707780451739765</v>
+        <v>0.05057770957246621</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.918097529627232</v>
+        <v>0.0008073651920363497</v>
       </c>
       <c r="H21">
-        <v>9.945885863657054</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05342412074519132</v>
+        <v>0.05767581949091749</v>
       </c>
       <c r="K21">
-        <v>0.8826343487215809</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3418873622694463</v>
       </c>
       <c r="M21">
-        <v>1.241003425723626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7621616873791339</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.85766862294651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.587285318268812</v>
+        <v>4.533696935525541</v>
       </c>
       <c r="C22">
-        <v>0.7851307270073562</v>
+        <v>0.575752091587475</v>
       </c>
       <c r="D22">
-        <v>0.4883885103142518</v>
+        <v>0.2977420605114531</v>
       </c>
       <c r="E22">
-        <v>0.2940573161059064</v>
+        <v>0.05197859678219618</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.339092335720011</v>
+        <v>0.0007953419890760227</v>
       </c>
       <c r="H22">
-        <v>10.7793399622916</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05782336679532207</v>
+        <v>0.0625198481986402</v>
       </c>
       <c r="K22">
-        <v>0.9713439702828168</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3617285861125197</v>
       </c>
       <c r="M22">
-        <v>1.359603186993127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8211580504644189</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.94755449020647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.413924251555557</v>
+        <v>4.345502527728968</v>
       </c>
       <c r="C23">
-        <v>0.7441992032283338</v>
+        <v>0.5459300218529393</v>
       </c>
       <c r="D23">
-        <v>0.4667742598497853</v>
+        <v>0.2899806169636747</v>
       </c>
       <c r="E23">
-        <v>0.2815155231048152</v>
+        <v>0.05122221749214173</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.11232844289475</v>
+        <v>0.0008017751824827002</v>
       </c>
       <c r="H23">
-        <v>10.33039823900128</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05545365166947391</v>
+        <v>0.05990550617997314</v>
       </c>
       <c r="K23">
-        <v>0.9234139261533016</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3510097384823467</v>
       </c>
       <c r="M23">
-        <v>1.295597826698838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.789292130220737</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.36099724675751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.797109598384623</v>
+        <v>3.677375673174595</v>
       </c>
       <c r="C24">
-        <v>0.6004070609234304</v>
+        <v>0.4407413807421392</v>
       </c>
       <c r="D24">
-        <v>0.3890205622942915</v>
+        <v>0.2621040084101054</v>
       </c>
       <c r="E24">
-        <v>0.2363391692263974</v>
+        <v>0.04852909582522535</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.294392575913065</v>
+        <v>0.0008258607792401328</v>
       </c>
       <c r="H24">
-        <v>8.711311535219863</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04691002309092518</v>
+        <v>0.05057407100382605</v>
       </c>
       <c r="K24">
-        <v>0.7534120940410247</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3130254486114268</v>
       </c>
       <c r="M24">
-        <v>1.06715725353807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6762102034854394</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.23635067406272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.193210601335295</v>
+        <v>3.029108821903208</v>
       </c>
       <c r="C25">
-        <v>0.4623735526780308</v>
+        <v>0.3394116673251517</v>
       </c>
       <c r="D25">
-        <v>0.3115468971130326</v>
+        <v>0.2345466021867253</v>
       </c>
       <c r="E25">
-        <v>0.1912342286057296</v>
+        <v>0.04588599676716676</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.474993861609846</v>
+        <v>0.0008516590651814116</v>
       </c>
       <c r="H25">
-        <v>7.089828216995045</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03836689007184191</v>
+        <v>0.04136796228729622</v>
       </c>
       <c r="K25">
-        <v>0.5877680587259775</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2764035372694451</v>
       </c>
       <c r="M25">
-        <v>0.8423796995400892</v>
+        <v>0.5666535649543647</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>11.09711444743385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.596341105399688</v>
+        <v>1.139879297360693</v>
       </c>
       <c r="C2">
-        <v>0.2718523584575507</v>
+        <v>0.08924478433565497</v>
       </c>
       <c r="D2">
-        <v>0.2158409307593274</v>
+        <v>0.2773660793046986</v>
       </c>
       <c r="E2">
-        <v>0.04408553242958124</v>
+        <v>0.0689608980310279</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000870823351917164</v>
+        <v>0.0008450020518512576</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03505560656698847</v>
+        <v>0.0296205427299796</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8914368081156852</v>
       </c>
       <c r="L2">
-        <v>0.2522229174483215</v>
+        <v>0.1969063353096701</v>
       </c>
       <c r="M2">
-        <v>0.4937050250619777</v>
+        <v>0.2545460748787889</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.506826068907198</v>
       </c>
       <c r="O2">
-        <v>9.610646838214251</v>
+        <v>3.553536351537275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.324071951522455</v>
+        <v>1.007752788835575</v>
       </c>
       <c r="C3">
-        <v>0.229190101196977</v>
+        <v>0.08544623630984916</v>
       </c>
       <c r="D3">
-        <v>0.2039292298122888</v>
+        <v>0.2617369305858972</v>
       </c>
       <c r="E3">
-        <v>0.04292632296137988</v>
+        <v>0.06809256579933276</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008840426818617884</v>
+        <v>0.0008492952967992795</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0309657624373223</v>
+        <v>0.02969227247856088</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7771646496051687</v>
       </c>
       <c r="L3">
-        <v>0.2372040132242503</v>
+        <v>0.1840187212392053</v>
       </c>
       <c r="M3">
-        <v>0.4479479390206507</v>
+        <v>0.2285745135083914</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.561528046029313</v>
       </c>
       <c r="O3">
-        <v>8.64212146184272</v>
+        <v>3.514402296955183</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.165451131831219</v>
+        <v>0.9273995680403573</v>
       </c>
       <c r="C4">
-        <v>0.2041978117567567</v>
+        <v>0.08310684600829177</v>
       </c>
       <c r="D4">
-        <v>0.1969322727116491</v>
+        <v>0.2524467433599114</v>
       </c>
       <c r="E4">
-        <v>0.04223673123372063</v>
+        <v>0.06762532963417556</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008923078296452553</v>
+        <v>0.0008520224795072751</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02852014273803505</v>
+        <v>0.02973996668894774</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7074391183108162</v>
       </c>
       <c r="L4">
-        <v>0.2285581048436356</v>
+        <v>0.1762995956683255</v>
       </c>
       <c r="M4">
-        <v>0.421364071881726</v>
+        <v>0.2128337389843331</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.596572885421192</v>
       </c>
       <c r="O4">
-        <v>8.062166240561197</v>
+        <v>3.49525883799248</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.102728303453944</v>
+        <v>0.8948323457867389</v>
       </c>
       <c r="C5">
-        <v>0.1942722285228058</v>
+        <v>0.08215138691257096</v>
       </c>
       <c r="D5">
-        <v>0.1941527603941182</v>
+        <v>0.248734465932074</v>
       </c>
       <c r="E5">
-        <v>0.04196027654923196</v>
+        <v>0.06745107933850214</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000895717718437094</v>
+        <v>0.000853157118969806</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02753652547391638</v>
+        <v>0.02976031126761391</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6791218909885259</v>
       </c>
       <c r="L5">
-        <v>0.2251667518139087</v>
+        <v>0.1732003963180873</v>
       </c>
       <c r="M5">
-        <v>0.4108715934256892</v>
+        <v>0.2064673469999327</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.611213710998285</v>
       </c>
       <c r="O5">
-        <v>7.828954691943096</v>
+        <v>3.488641148293908</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.092422643931911</v>
+        <v>0.8894348157626268</v>
       </c>
       <c r="C6">
-        <v>0.192638567282799</v>
+        <v>0.08199259436356243</v>
       </c>
       <c r="D6">
-        <v>0.1936953476287044</v>
+        <v>0.248122389905916</v>
       </c>
       <c r="E6">
-        <v>0.0419146195649045</v>
+        <v>0.06742310873943858</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008962865716104553</v>
+        <v>0.0008533469425107504</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02737388735128832</v>
+        <v>0.02976374409789706</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6744252796378589</v>
       </c>
       <c r="L6">
-        <v>0.2246112403677003</v>
+        <v>0.172688512911165</v>
       </c>
       <c r="M6">
-        <v>0.4091488379813129</v>
+        <v>0.2054130141334802</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.613666347119814</v>
       </c>
       <c r="O6">
-        <v>7.790403176335474</v>
+        <v>3.487612490602089</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.164597759851176</v>
+        <v>0.9269596587658953</v>
       </c>
       <c r="C7">
-        <v>0.2040629567227654</v>
+        <v>0.08309396947355197</v>
       </c>
       <c r="D7">
-        <v>0.1968945062726277</v>
+        <v>0.2523963849135242</v>
       </c>
       <c r="E7">
-        <v>0.04223298565674494</v>
+        <v>0.06762291477991589</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008923536417578284</v>
+        <v>0.0008520376869137652</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02850682902643342</v>
+        <v>0.0297402373952087</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7070568491030684</v>
       </c>
       <c r="L7">
-        <v>0.2285118496198209</v>
+        <v>0.1762576139074952</v>
       </c>
       <c r="M7">
-        <v>0.421221235929842</v>
+        <v>0.2127476895410396</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.596768888688857</v>
       </c>
       <c r="O7">
-        <v>8.059009131206722</v>
+        <v>3.495164855609545</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.500537054392794</v>
+        <v>1.094151089318331</v>
       </c>
       <c r="C8">
-        <v>0.2568649058476353</v>
+        <v>0.08793628566469636</v>
       </c>
       <c r="D8">
-        <v>0.2116629741732226</v>
+        <v>0.2719114741235131</v>
       </c>
       <c r="E8">
-        <v>0.04368058305341638</v>
+        <v>0.06864755216199647</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008753534141137117</v>
+        <v>0.0008464636857770717</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03362957336932482</v>
+        <v>0.02964451121985689</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.851936373818944</v>
       </c>
       <c r="L8">
-        <v>0.2469166673181746</v>
+        <v>0.1924209775514782</v>
       </c>
       <c r="M8">
-        <v>0.4775891186380079</v>
+        <v>0.2455460784409595</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.52538061867466</v>
       </c>
       <c r="O8">
-        <v>9.273274200488288</v>
+        <v>3.539001260286341</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.239528134941338</v>
+        <v>1.428974671121267</v>
       </c>
       <c r="C9">
-        <v>0.372254436441267</v>
+        <v>0.097393922441249</v>
       </c>
       <c r="D9">
-        <v>0.2435494591814518</v>
+        <v>0.3127756759489415</v>
       </c>
       <c r="E9">
-        <v>0.04674912288587585</v>
+        <v>0.07120033220706468</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008429616447620737</v>
+        <v>0.000836237950955776</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04438092066509114</v>
+        <v>0.02948624404245326</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.140186797013598</v>
       </c>
       <c r="L9">
-        <v>0.2882513851835569</v>
+        <v>0.2257700937776832</v>
       </c>
       <c r="M9">
-        <v>0.6021866502621407</v>
+        <v>0.3116753516211546</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.397272345597948</v>
       </c>
       <c r="O9">
-        <v>11.80146318361861</v>
+        <v>3.665877377759927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.852028662672694</v>
+        <v>1.680459488428255</v>
       </c>
       <c r="C10">
-        <v>0.4681458768072559</v>
+        <v>0.1043466964290261</v>
       </c>
       <c r="D10">
-        <v>0.2694407480273924</v>
+        <v>0.3446276460549882</v>
       </c>
       <c r="E10">
-        <v>0.04923495945678091</v>
+        <v>0.07343744696673049</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008193557933347704</v>
+        <v>0.0008291281896703396</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05302377506057354</v>
+        <v>0.02938866161726317</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.355494048438516</v>
       </c>
       <c r="L10">
-        <v>0.3229395231969647</v>
+        <v>0.2514500878094452</v>
       </c>
       <c r="M10">
-        <v>0.7057599281805409</v>
+        <v>0.3616326874383944</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.310861068202101</v>
       </c>
       <c r="O10">
-        <v>13.79865827207686</v>
+        <v>3.787225359501178</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.151670662492279</v>
+        <v>1.796356508888465</v>
       </c>
       <c r="C11">
-        <v>0.5153093558607225</v>
+        <v>0.1075173306116426</v>
       </c>
       <c r="D11">
-        <v>0.2819456218136338</v>
+        <v>0.3595738129449444</v>
       </c>
       <c r="E11">
-        <v>0.05044255161520272</v>
+        <v>0.07454087551508337</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008085506120885283</v>
+        <v>0.0008259750683373901</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05720798587952558</v>
+        <v>0.02934851917560266</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.454450004073323</v>
       </c>
       <c r="L11">
-        <v>0.3399761456832664</v>
+        <v>0.2634292385904331</v>
       </c>
       <c r="M11">
-        <v>0.7564759982508917</v>
+        <v>0.3847215045820178</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.273335678329133</v>
       </c>
       <c r="O11">
-        <v>14.75170601460815</v>
+        <v>3.849299925983416</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.26878411628087</v>
+        <v>1.84048497074275</v>
       </c>
       <c r="C12">
-        <v>0.5337992649752721</v>
+        <v>0.1087196862947479</v>
       </c>
       <c r="D12">
-        <v>0.2868053941925979</v>
+        <v>0.365304378282346</v>
       </c>
       <c r="E12">
-        <v>0.05091372609097977</v>
+        <v>0.07497168448376712</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008044380421052911</v>
+        <v>0.0008247921898983387</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05883851737641876</v>
+        <v>0.02933394748523721</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.492088729785252</v>
       </c>
       <c r="L12">
-        <v>0.3466417265290005</v>
+        <v>0.2680117742208381</v>
       </c>
       <c r="M12">
-        <v>0.7763029046871068</v>
+        <v>0.393522476985126</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.259392493121418</v>
       </c>
       <c r="O12">
-        <v>15.12048525709326</v>
+        <v>3.873862572179888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.243388068791774</v>
+        <v>1.830969978065127</v>
       </c>
       <c r="C13">
-        <v>0.529786880151903</v>
+        <v>0.1084606517518196</v>
       </c>
       <c r="D13">
-        <v>0.2857528576467132</v>
+        <v>0.364066965256427</v>
       </c>
       <c r="E13">
-        <v>0.05081158012221376</v>
+        <v>0.07487831491334163</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000805324892247853</v>
+        <v>0.0008250464572233141</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05848512478596746</v>
+        <v>0.02933705745033066</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.483974815008935</v>
       </c>
       <c r="L13">
-        <v>0.3451960376963967</v>
+        <v>0.2670227249975312</v>
       </c>
       <c r="M13">
-        <v>0.7720032626034126</v>
+        <v>0.3916243695704864</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.262383364892663</v>
       </c>
       <c r="O13">
-        <v>15.04068456240606</v>
+        <v>3.868524448043161</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.161228527003686</v>
+        <v>1.799982004269395</v>
       </c>
       <c r="C14">
-        <v>0.5168171112121343</v>
+        <v>0.1076162114182466</v>
       </c>
       <c r="D14">
-        <v>0.2823428149567917</v>
+        <v>0.3600438209073502</v>
       </c>
       <c r="E14">
-        <v>0.05048101845092212</v>
+        <v>0.07457605481742391</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008082127600251212</v>
+        <v>0.0008258775320968769</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05734114358985565</v>
+        <v>0.02934730762653803</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.457543108148201</v>
       </c>
       <c r="L14">
-        <v>0.340520017088707</v>
+        <v>0.2638052975289469</v>
       </c>
       <c r="M14">
-        <v>0.7580940288606755</v>
+        <v>0.3854443755206489</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.272183153437346</v>
       </c>
       <c r="O14">
-        <v>14.78187815751488</v>
+        <v>3.851299131149432</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.111399048825604</v>
+        <v>1.781033128055981</v>
       </c>
       <c r="C15">
-        <v>0.508958872755727</v>
+        <v>0.1070992076910358</v>
       </c>
       <c r="D15">
-        <v>0.2802709346101864</v>
+        <v>0.3575889042033538</v>
       </c>
       <c r="E15">
-        <v>0.05028044393587461</v>
+        <v>0.0743926196803173</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008099785677551691</v>
+        <v>0.0008263880239683388</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05664674839809436</v>
+        <v>0.02935366870442913</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.441375218817115</v>
       </c>
       <c r="L15">
-        <v>0.3376848273099853</v>
+        <v>0.2618406686785164</v>
       </c>
       <c r="M15">
-        <v>0.7496586814193975</v>
+        <v>0.3816666413739327</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.278220882218179</v>
       </c>
       <c r="O15">
-        <v>14.62442733509886</v>
+        <v>3.840887800523348</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.832919511667114</v>
+        <v>1.672917594037358</v>
       </c>
       <c r="C16">
-        <v>0.4651446236541688</v>
+        <v>0.1041396935878822</v>
       </c>
       <c r="D16">
-        <v>0.2686397632556634</v>
+        <v>0.3436604958921947</v>
       </c>
       <c r="E16">
-        <v>0.0491578141122524</v>
+        <v>0.07336711405503138</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008200596821411866</v>
+        <v>0.0008293358419430029</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05275619261376008</v>
+        <v>0.02939137203892628</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.349049142112221</v>
       </c>
       <c r="L16">
-        <v>0.321854132763491</v>
+        <v>0.2506735005571983</v>
       </c>
       <c r="M16">
-        <v>0.7025263604317473</v>
+        <v>0.3601315476813838</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.31335020144946</v>
       </c>
       <c r="O16">
-        <v>13.73738970448457</v>
+        <v>3.783312644575858</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.667866721755502</v>
+        <v>1.606992942764464</v>
       </c>
       <c r="C17">
-        <v>0.4392509672946687</v>
+        <v>0.1023265220914666</v>
       </c>
       <c r="D17">
-        <v>0.261703526636353</v>
+        <v>0.3352363376920806</v>
       </c>
       <c r="E17">
-        <v>0.04849061082272499</v>
+        <v>0.07276040031926456</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008262196981937698</v>
+        <v>0.000831164650299122</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05044041622737083</v>
+        <v>0.02941560239910057</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.292683492955803</v>
       </c>
       <c r="L17">
-        <v>0.3124861054265438</v>
+        <v>0.2439013732957562</v>
       </c>
       <c r="M17">
-        <v>0.6746016734716207</v>
+        <v>0.3470172512116108</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.335364868342424</v>
       </c>
       <c r="O17">
-        <v>13.20558226731524</v>
+        <v>3.749799326731733</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.574866303896101</v>
+        <v>1.56921392394392</v>
       </c>
       <c r="C18">
-        <v>0.4246823968422291</v>
+        <v>0.1012843283048639</v>
       </c>
       <c r="D18">
-        <v>0.2577809940785158</v>
+        <v>0.3304336297559445</v>
       </c>
       <c r="E18">
-        <v>0.04811387615432938</v>
+        <v>0.07241946579092051</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008297572878901156</v>
+        <v>0.0008322242037446093</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04913151706589147</v>
+        <v>0.0294299377043945</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.260357346955686</v>
       </c>
       <c r="L18">
-        <v>0.30721379908708</v>
+        <v>0.2400339705165635</v>
       </c>
       <c r="M18">
-        <v>0.6588716143957072</v>
+        <v>0.3395080647266866</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.348194331382601</v>
       </c>
       <c r="O18">
-        <v>12.90378621101624</v>
+        <v>3.731165892738574</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.543693145928614</v>
+        <v>1.556445732851415</v>
       </c>
       <c r="C19">
-        <v>0.4198022547914491</v>
+        <v>0.1009315616357256</v>
       </c>
       <c r="D19">
-        <v>0.2564638568622684</v>
+        <v>0.3288146892309385</v>
       </c>
       <c r="E19">
-        <v>0.04798744989881332</v>
+        <v>0.07230539197872687</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008309544193323068</v>
+        <v>0.0008325842833778236</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04869204679117445</v>
+        <v>0.02943485933063439</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.249427785551006</v>
       </c>
       <c r="L19">
-        <v>0.3054476894458276</v>
+        <v>0.2387291955110697</v>
       </c>
       <c r="M19">
-        <v>0.6535997948346477</v>
+        <v>0.336971227661806</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.352566580845554</v>
       </c>
       <c r="O19">
-        <v>12.80226467292883</v>
+        <v>3.724965294525816</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.685232655455991</v>
+        <v>1.613996157819116</v>
       </c>
       <c r="C20">
-        <v>0.4419729883312584</v>
+        <v>0.1025194613290736</v>
       </c>
       <c r="D20">
-        <v>0.2624348342023666</v>
+        <v>0.3361286541071422</v>
       </c>
       <c r="E20">
-        <v>0.04856089031019728</v>
+        <v>0.07282415038686629</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008255645963672077</v>
+        <v>0.0008309691803322289</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05068448278234783</v>
+        <v>0.0294129816506592</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.298673850135572</v>
       </c>
       <c r="L20">
-        <v>0.3134711287442258</v>
+        <v>0.2446193812815523</v>
       </c>
       <c r="M20">
-        <v>0.6775393123113531</v>
+        <v>0.348409752369399</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.333003991078868</v>
       </c>
       <c r="O20">
-        <v>13.26176148561063</v>
+        <v>3.753299898767011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.185256175856239</v>
+        <v>1.80907717413848</v>
       </c>
       <c r="C21">
-        <v>0.5206084431285376</v>
+        <v>0.1078641928031203</v>
       </c>
       <c r="D21">
-        <v>0.2833408699569731</v>
+        <v>0.3612235524492462</v>
       </c>
       <c r="E21">
-        <v>0.05057770957246621</v>
+        <v>0.07466447881791538</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008073651920363497</v>
+        <v>0.0008256331272562571</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05767581949091749</v>
+        <v>0.02934427966222586</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.465302055749618</v>
       </c>
       <c r="L21">
-        <v>0.3418873622694463</v>
+        <v>0.2647490480256067</v>
       </c>
       <c r="M21">
-        <v>0.7621616873791339</v>
+        <v>0.387257976385321</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.269297388690255</v>
       </c>
       <c r="O21">
-        <v>14.85766862294651</v>
+        <v>3.856329387940747</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.533696935525541</v>
+        <v>1.937990655302656</v>
       </c>
       <c r="C22">
-        <v>0.575752091587475</v>
+        <v>0.1113675338017615</v>
       </c>
       <c r="D22">
-        <v>0.2977420605114531</v>
+        <v>0.3780396986472994</v>
       </c>
       <c r="E22">
-        <v>0.05197859678219618</v>
+        <v>0.0759431327956861</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007953419890760227</v>
+        <v>0.0008222103722541113</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0625198481986402</v>
+        <v>0.02930305761856822</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.575183053810093</v>
       </c>
       <c r="L22">
-        <v>0.3617285861125197</v>
+        <v>0.2781766080089909</v>
       </c>
       <c r="M22">
-        <v>0.8211580504644189</v>
+        <v>0.4129869495622032</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.229222323227816</v>
       </c>
       <c r="O22">
-        <v>15.94755449020647</v>
+        <v>3.929857601605107</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.345502527728968</v>
+        <v>1.869048461890742</v>
       </c>
       <c r="C23">
-        <v>0.5459300218529393</v>
+        <v>0.1094965895044027</v>
       </c>
       <c r="D23">
-        <v>0.2899806169636747</v>
+        <v>0.3690248277153358</v>
       </c>
       <c r="E23">
-        <v>0.05122221749214173</v>
+        <v>0.07525352613381742</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008017751824827002</v>
+        <v>0.0008240314276179895</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05990550617997314</v>
+        <v>0.02932471532252734</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.516440563815422</v>
       </c>
       <c r="L23">
-        <v>0.3510097384823467</v>
+        <v>0.2709839669062859</v>
       </c>
       <c r="M23">
-        <v>0.789292130220737</v>
+        <v>0.3992219173499976</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.250464681694964</v>
       </c>
       <c r="O23">
-        <v>15.36099724675751</v>
+        <v>3.890023789820987</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.677375673174595</v>
+        <v>1.610829626397077</v>
       </c>
       <c r="C24">
-        <v>0.4407413807421392</v>
+        <v>0.1024322328498712</v>
       </c>
       <c r="D24">
-        <v>0.2621040084101054</v>
+        <v>0.3357251122378244</v>
       </c>
       <c r="E24">
-        <v>0.04852909582522535</v>
+        <v>0.0727953045051617</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008258607792401328</v>
+        <v>0.000831057526882472</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05057407100382605</v>
+        <v>0.02941416523108842</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.295965364465644</v>
       </c>
       <c r="L24">
-        <v>0.3130254486114268</v>
+        <v>0.2442946892044944</v>
       </c>
       <c r="M24">
-        <v>0.6762102034854394</v>
+        <v>0.3477801083295802</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.334070805804402</v>
       </c>
       <c r="O24">
-        <v>13.23635067406272</v>
+        <v>3.751715321033203</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.029108821903208</v>
+        <v>1.337527018689173</v>
       </c>
       <c r="C25">
-        <v>0.3394116673251517</v>
+        <v>0.09483675501127209</v>
       </c>
       <c r="D25">
-        <v>0.2345466021867253</v>
+        <v>0.3014184315238282</v>
       </c>
       <c r="E25">
-        <v>0.04588599676716676</v>
+        <v>0.07044854385900834</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008516590651814116</v>
+        <v>0.0008389314862728318</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04136796228729622</v>
+        <v>0.02952583506577167</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.061664302070483</v>
       </c>
       <c r="L25">
-        <v>0.2764035372694451</v>
+        <v>0.2165543643233576</v>
       </c>
       <c r="M25">
-        <v>0.5666535649543647</v>
+        <v>0.2935650908625576</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.430610724559521</v>
       </c>
       <c r="O25">
-        <v>11.09711444743385</v>
+        <v>3.626857366284327</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139879297360693</v>
+        <v>1.152912314591731</v>
       </c>
       <c r="C2">
-        <v>0.08924478433565497</v>
+        <v>0.09153488514983366</v>
       </c>
       <c r="D2">
-        <v>0.2773660793046986</v>
+        <v>0.5257931236919404</v>
       </c>
       <c r="E2">
-        <v>0.0689608980310279</v>
+        <v>0.1728898487075377</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008450020518512576</v>
+        <v>0.002565892654596835</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0296205427299796</v>
+        <v>0.06832942028598588</v>
       </c>
       <c r="K2">
-        <v>0.8914368081156852</v>
+        <v>0.6084244706602533</v>
       </c>
       <c r="L2">
-        <v>0.1969063353096701</v>
+        <v>0.3817415372010515</v>
       </c>
       <c r="M2">
-        <v>0.2545460748787889</v>
+        <v>0.3334672989715379</v>
       </c>
       <c r="N2">
-        <v>1.506826068907198</v>
+        <v>3.172810236860332</v>
       </c>
       <c r="O2">
-        <v>3.553536351537275</v>
+        <v>7.603997695886903</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.007752788835575</v>
+        <v>1.122607785687222</v>
       </c>
       <c r="C3">
-        <v>0.08544623630984916</v>
+        <v>0.09014219837622051</v>
       </c>
       <c r="D3">
-        <v>0.2617369305858972</v>
+        <v>0.5244424576332847</v>
       </c>
       <c r="E3">
-        <v>0.06809256579933276</v>
+        <v>0.1734020414272202</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008492952967992795</v>
+        <v>0.002568760308303305</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02969227247856088</v>
+        <v>0.06837021560265555</v>
       </c>
       <c r="K3">
-        <v>0.7771646496051687</v>
+        <v>0.579298000960506</v>
       </c>
       <c r="L3">
-        <v>0.1840187212392053</v>
+        <v>0.3802693966747839</v>
       </c>
       <c r="M3">
-        <v>0.2285745135083914</v>
+        <v>0.3281998855934134</v>
       </c>
       <c r="N3">
-        <v>1.561528046029313</v>
+        <v>3.196780007223172</v>
       </c>
       <c r="O3">
-        <v>3.514402296955183</v>
+        <v>7.632383548754603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9273995680403573</v>
+        <v>1.104511427369232</v>
       </c>
       <c r="C4">
-        <v>0.08310684600829177</v>
+        <v>0.0892737462161719</v>
       </c>
       <c r="D4">
-        <v>0.2524467433599114</v>
+        <v>0.5238164316904204</v>
       </c>
       <c r="E4">
-        <v>0.06762532963417556</v>
+        <v>0.1737648938448082</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008520224795072751</v>
+        <v>0.002570616732927786</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02973996668894774</v>
+        <v>0.06839728786289756</v>
       </c>
       <c r="K4">
-        <v>0.7074391183108162</v>
+        <v>0.561676104069349</v>
       </c>
       <c r="L4">
-        <v>0.1762995956683255</v>
+        <v>0.3795044906745488</v>
       </c>
       <c r="M4">
-        <v>0.2128337389843331</v>
+        <v>0.3251069130012034</v>
       </c>
       <c r="N4">
-        <v>1.596572885421192</v>
+        <v>3.21228313511385</v>
       </c>
       <c r="O4">
-        <v>3.49525883799248</v>
+        <v>7.652638335482976</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8948323457867389</v>
+        <v>1.097266079878295</v>
       </c>
       <c r="C5">
-        <v>0.08215138691257096</v>
+        <v>0.08891649674404789</v>
       </c>
       <c r="D5">
-        <v>0.248734465932074</v>
+        <v>0.5236125631315645</v>
       </c>
       <c r="E5">
-        <v>0.06745107933850214</v>
+        <v>0.1739249486411776</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000853157118969806</v>
+        <v>0.002571397370575921</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02976031126761391</v>
+        <v>0.06840883039371937</v>
       </c>
       <c r="K5">
-        <v>0.6791218909885259</v>
+        <v>0.554561339224577</v>
       </c>
       <c r="L5">
-        <v>0.1732003963180873</v>
+        <v>0.3792278388239154</v>
       </c>
       <c r="M5">
-        <v>0.2064673469999327</v>
+        <v>0.3238821601453985</v>
       </c>
       <c r="N5">
-        <v>1.611213710998285</v>
+        <v>3.21879843538596</v>
       </c>
       <c r="O5">
-        <v>3.488641148293908</v>
+        <v>7.661603646261881</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8894348157626268</v>
+        <v>1.096070809371554</v>
       </c>
       <c r="C6">
-        <v>0.08199259436356243</v>
+        <v>0.08885697368295098</v>
       </c>
       <c r="D6">
-        <v>0.248122389905916</v>
+        <v>0.5235818094470659</v>
       </c>
       <c r="E6">
-        <v>0.06742310873943858</v>
+        <v>0.1739522626564352</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008533469425107504</v>
+        <v>0.002571528454254532</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02976374409789706</v>
+        <v>0.0684107778904739</v>
       </c>
       <c r="K6">
-        <v>0.6744252796378589</v>
+        <v>0.5533839556637759</v>
       </c>
       <c r="L6">
-        <v>0.172688512911165</v>
+        <v>0.3791840211566679</v>
       </c>
       <c r="M6">
-        <v>0.2054130141334802</v>
+        <v>0.3236809487551113</v>
       </c>
       <c r="N6">
-        <v>1.613666347119814</v>
+        <v>3.219892236759947</v>
       </c>
       <c r="O6">
-        <v>3.487612490602089</v>
+        <v>7.663135313768237</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9269596587658953</v>
+        <v>1.104413190656402</v>
       </c>
       <c r="C7">
-        <v>0.08309396947355197</v>
+        <v>0.08926894177336209</v>
       </c>
       <c r="D7">
-        <v>0.2523963849135242</v>
+        <v>0.5238134746055891</v>
       </c>
       <c r="E7">
-        <v>0.06762291477991589</v>
+        <v>0.1737670030076259</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008520376869137652</v>
+        <v>0.00257062716290884</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0297402373952087</v>
+        <v>0.06839744146114146</v>
       </c>
       <c r="K7">
-        <v>0.7070568491030684</v>
+        <v>0.5615798828134757</v>
       </c>
       <c r="L7">
-        <v>0.1762576139074952</v>
+        <v>0.3795006175838651</v>
       </c>
       <c r="M7">
-        <v>0.2127476895410396</v>
+        <v>0.3250902509863565</v>
       </c>
       <c r="N7">
-        <v>1.596768888688857</v>
+        <v>3.212370202317373</v>
       </c>
       <c r="O7">
-        <v>3.495164855609545</v>
+        <v>7.652756363687018</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.094151089318331</v>
+        <v>1.142357676429015</v>
       </c>
       <c r="C8">
-        <v>0.08793628566469636</v>
+        <v>0.09105745775769236</v>
       </c>
       <c r="D8">
-        <v>0.2719114741235131</v>
+        <v>0.5252852940892865</v>
       </c>
       <c r="E8">
-        <v>0.06864755216199647</v>
+        <v>0.1730564314489769</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008464636857770717</v>
+        <v>0.002566861607763858</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02964451121985689</v>
+        <v>0.06834306735797036</v>
       </c>
       <c r="K8">
-        <v>0.851936373818944</v>
+        <v>0.5983275723927193</v>
       </c>
       <c r="L8">
-        <v>0.1924209775514782</v>
+        <v>0.3812051550222932</v>
       </c>
       <c r="M8">
-        <v>0.2455460784409595</v>
+        <v>0.3316218634536163</v>
       </c>
       <c r="N8">
-        <v>1.52538061867466</v>
+        <v>3.18091202994222</v>
       </c>
       <c r="O8">
-        <v>3.539001260286341</v>
+        <v>7.613199100485559</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.428974671121267</v>
+        <v>1.220796232579886</v>
       </c>
       <c r="C9">
-        <v>0.097393922441249</v>
+        <v>0.09445880840732457</v>
       </c>
       <c r="D9">
-        <v>0.3127756759489415</v>
+        <v>0.5297797430536235</v>
       </c>
       <c r="E9">
-        <v>0.07120033220706468</v>
+        <v>0.1720455726569465</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000836237950955776</v>
+        <v>0.002560233223262081</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02948624404245326</v>
+        <v>0.06825243302527895</v>
       </c>
       <c r="K9">
-        <v>1.140186797013598</v>
+        <v>0.672451865374228</v>
       </c>
       <c r="L9">
-        <v>0.2257700937776832</v>
+        <v>0.3856466157283478</v>
       </c>
       <c r="M9">
-        <v>0.3116753516211546</v>
+        <v>0.3455457261583348</v>
       </c>
       <c r="N9">
-        <v>1.397272345597948</v>
+        <v>3.125450385904813</v>
       </c>
       <c r="O9">
-        <v>3.665877377759927</v>
+        <v>7.558018571613218</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.680459488428255</v>
+        <v>1.28085783879186</v>
       </c>
       <c r="C10">
-        <v>0.1043466964290261</v>
+        <v>0.09689327612632326</v>
       </c>
       <c r="D10">
-        <v>0.3446276460549882</v>
+        <v>0.5340567364804656</v>
       </c>
       <c r="E10">
-        <v>0.07343744696673049</v>
+        <v>0.1715346135220575</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008291281896703396</v>
+        <v>0.002555819565331291</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02938866161726317</v>
+        <v>0.06819550699499555</v>
       </c>
       <c r="K10">
-        <v>1.355494048438516</v>
+        <v>0.7281532288558878</v>
       </c>
       <c r="L10">
-        <v>0.2514500878094452</v>
+        <v>0.3895750416492092</v>
       </c>
       <c r="M10">
-        <v>0.3616326874383944</v>
+        <v>0.356449883292413</v>
       </c>
       <c r="N10">
-        <v>1.310861068202101</v>
+        <v>3.088490456556464</v>
       </c>
       <c r="O10">
-        <v>3.787225359501178</v>
+        <v>7.531092480789709</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.796356508888465</v>
+        <v>1.308705097279045</v>
       </c>
       <c r="C11">
-        <v>0.1075173306116426</v>
+        <v>0.0979867987382832</v>
       </c>
       <c r="D11">
-        <v>0.3595738129449444</v>
+        <v>0.536213046569344</v>
       </c>
       <c r="E11">
-        <v>0.07454087551508337</v>
+        <v>0.1713521683017589</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008259750683373901</v>
+        <v>0.002553909768868521</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02934851917560266</v>
+        <v>0.0681716899144913</v>
       </c>
       <c r="K11">
-        <v>1.454450004073323</v>
+        <v>0.7537601734641441</v>
       </c>
       <c r="L11">
-        <v>0.2634292385904331</v>
+        <v>0.3915057172687568</v>
       </c>
       <c r="M11">
-        <v>0.3847215045820178</v>
+        <v>0.3615557709717834</v>
       </c>
       <c r="N11">
-        <v>1.273335678329133</v>
+        <v>3.072497020894247</v>
       </c>
       <c r="O11">
-        <v>3.849299925983416</v>
+        <v>7.521792491190553</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.84048497074275</v>
+        <v>1.319325072928933</v>
       </c>
       <c r="C12">
-        <v>0.1087196862947479</v>
+        <v>0.09839888145141629</v>
       </c>
       <c r="D12">
-        <v>0.365304378282346</v>
+        <v>0.5370597713825447</v>
       </c>
       <c r="E12">
-        <v>0.07497168448376712</v>
+        <v>0.1712902432977081</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008247921898983387</v>
+        <v>0.002553200596995375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02933394748523721</v>
+        <v>0.06816296850045589</v>
       </c>
       <c r="K12">
-        <v>1.492088729785252</v>
+        <v>0.7634950392958331</v>
       </c>
       <c r="L12">
-        <v>0.2680117742208381</v>
+        <v>0.3922573737982731</v>
       </c>
       <c r="M12">
-        <v>0.393522476985126</v>
+        <v>0.3635100415447283</v>
       </c>
       <c r="N12">
-        <v>1.259392493121418</v>
+        <v>3.066558512375906</v>
       </c>
       <c r="O12">
-        <v>3.873862572179888</v>
+        <v>7.518694227018727</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.830969978065127</v>
+        <v>1.317034553903085</v>
       </c>
       <c r="C13">
-        <v>0.1084606517518196</v>
+        <v>0.09831022160802405</v>
       </c>
       <c r="D13">
-        <v>0.364066965256427</v>
+        <v>0.5368760738107454</v>
       </c>
       <c r="E13">
-        <v>0.07487831491334163</v>
+        <v>0.1713032617874539</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008250464572233141</v>
+        <v>0.002553352707169651</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02933705745033066</v>
+        <v>0.06816483359851055</v>
       </c>
       <c r="K13">
-        <v>1.483974815008935</v>
+        <v>0.7613967762037817</v>
       </c>
       <c r="L13">
-        <v>0.2670227249975312</v>
+        <v>0.3920945786704806</v>
       </c>
       <c r="M13">
-        <v>0.3916243695704864</v>
+        <v>0.3630882324547002</v>
       </c>
       <c r="N13">
-        <v>1.262383364892663</v>
+        <v>3.06783223510606</v>
       </c>
       <c r="O13">
-        <v>3.868524448043161</v>
+        <v>7.519342670493927</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.799982004269395</v>
+        <v>1.309577313286724</v>
       </c>
       <c r="C14">
-        <v>0.1076162114182466</v>
+        <v>0.09802074136919003</v>
       </c>
       <c r="D14">
-        <v>0.3600438209073502</v>
+        <v>0.5362821030199001</v>
       </c>
       <c r="E14">
-        <v>0.07457605481742391</v>
+        <v>0.1713469302839563</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008258775320968769</v>
+        <v>0.002553851144189111</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02934730762653803</v>
+        <v>0.06817096644172516</v>
       </c>
       <c r="K14">
-        <v>1.457543108148201</v>
+        <v>0.7545603064885711</v>
       </c>
       <c r="L14">
-        <v>0.2638052975289469</v>
+        <v>0.391567145191857</v>
       </c>
       <c r="M14">
-        <v>0.3854443755206489</v>
+        <v>0.3617161343247872</v>
       </c>
       <c r="N14">
-        <v>1.272183153437346</v>
+        <v>3.072006094330007</v>
       </c>
       <c r="O14">
-        <v>3.851299131149432</v>
+        <v>7.521529112168594</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.781033128055981</v>
+        <v>1.305019262651399</v>
       </c>
       <c r="C15">
-        <v>0.1070992076910358</v>
+        <v>0.09784316430358331</v>
       </c>
       <c r="D15">
-        <v>0.3575889042033538</v>
+        <v>0.5359222051597214</v>
       </c>
       <c r="E15">
-        <v>0.0743926196803173</v>
+        <v>0.1713746105732987</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008263880239683388</v>
+        <v>0.002554158276061158</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02935366870442913</v>
+        <v>0.0681747617018722</v>
       </c>
       <c r="K15">
-        <v>1.441375218817115</v>
+        <v>0.7503777151071063</v>
       </c>
       <c r="L15">
-        <v>0.2618406686785164</v>
+        <v>0.3912467504121508</v>
       </c>
       <c r="M15">
-        <v>0.3816666413739327</v>
+        <v>0.3608783866765677</v>
       </c>
       <c r="N15">
-        <v>1.278220882218179</v>
+        <v>3.074578051415678</v>
       </c>
       <c r="O15">
-        <v>3.840887800523348</v>
+        <v>7.522923497571242</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.672917594037358</v>
+        <v>1.279048461396684</v>
       </c>
       <c r="C16">
-        <v>0.1041396935878822</v>
+        <v>0.09682153091623746</v>
       </c>
       <c r="D16">
-        <v>0.3436604958921947</v>
+        <v>0.5339200458623594</v>
       </c>
       <c r="E16">
-        <v>0.07336711405503138</v>
+        <v>0.1715475405146911</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008293358419430029</v>
+        <v>0.002555946341560677</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02939137203892628</v>
+        <v>0.06819710521445899</v>
       </c>
       <c r="K16">
-        <v>1.349049142112221</v>
+        <v>0.7264851086803503</v>
       </c>
       <c r="L16">
-        <v>0.2506735005571983</v>
+        <v>0.3894517487971143</v>
       </c>
       <c r="M16">
-        <v>0.3601315476813838</v>
+        <v>0.3561191175501435</v>
       </c>
       <c r="N16">
-        <v>1.31335020144946</v>
+        <v>3.089552159376723</v>
       </c>
       <c r="O16">
-        <v>3.783312644575858</v>
+        <v>7.53175954370127</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.606992942764464</v>
+        <v>1.26325019312776</v>
       </c>
       <c r="C17">
-        <v>0.1023265220914666</v>
+        <v>0.09619121897583227</v>
       </c>
       <c r="D17">
-        <v>0.3352363376920806</v>
+        <v>0.5327456624519726</v>
       </c>
       <c r="E17">
-        <v>0.07276040031926456</v>
+        <v>0.1716664133281736</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000831164650299122</v>
+        <v>0.002557068314905764</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02941560239910057</v>
+        <v>0.06821134372359605</v>
       </c>
       <c r="K17">
-        <v>1.292683492955803</v>
+        <v>0.7118960955945681</v>
       </c>
       <c r="L17">
-        <v>0.2439013732957562</v>
+        <v>0.3883872854012225</v>
       </c>
       <c r="M17">
-        <v>0.3470172512116108</v>
+        <v>0.353236630673301</v>
       </c>
       <c r="N17">
-        <v>1.335364868342424</v>
+        <v>3.098948242502175</v>
       </c>
       <c r="O17">
-        <v>3.749799326731733</v>
+        <v>7.537935010006635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.56921392394392</v>
+        <v>1.254212895727164</v>
       </c>
       <c r="C18">
-        <v>0.1012843283048639</v>
+        <v>0.09582736961399974</v>
       </c>
       <c r="D18">
-        <v>0.3304336297559445</v>
+        <v>0.5320900259000894</v>
       </c>
       <c r="E18">
-        <v>0.07241946579092051</v>
+        <v>0.1717394929099534</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008322242037446093</v>
+        <v>0.002557722872323575</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0294299377043945</v>
+        <v>0.06821972908834262</v>
       </c>
       <c r="K18">
-        <v>1.260357346955686</v>
+        <v>0.7035301462596237</v>
       </c>
       <c r="L18">
-        <v>0.2400339705165635</v>
+        <v>0.3877885579000662</v>
       </c>
       <c r="M18">
-        <v>0.3395080647266866</v>
+        <v>0.3515924073076064</v>
       </c>
       <c r="N18">
-        <v>1.348194331382601</v>
+        <v>3.104429788093917</v>
       </c>
       <c r="O18">
-        <v>3.731165892738574</v>
+        <v>7.541764567556385</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.556445732851415</v>
+        <v>1.251161535124169</v>
       </c>
       <c r="C19">
-        <v>0.1009315616357256</v>
+        <v>0.09570395160702816</v>
       </c>
       <c r="D19">
-        <v>0.3288146892309385</v>
+        <v>0.5318714494088397</v>
       </c>
       <c r="E19">
-        <v>0.07230539197872687</v>
+        <v>0.1717650456357731</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008325842833778236</v>
+        <v>0.002557946081166067</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02943485933063439</v>
+        <v>0.0682226018904224</v>
       </c>
       <c r="K19">
-        <v>1.249427785551006</v>
+        <v>0.7007019335860036</v>
       </c>
       <c r="L19">
-        <v>0.2387291955110697</v>
+        <v>0.3875881648157105</v>
       </c>
       <c r="M19">
-        <v>0.336971227661806</v>
+        <v>0.3510380601302714</v>
       </c>
       <c r="N19">
-        <v>1.352566580845554</v>
+        <v>3.106298999772889</v>
       </c>
       <c r="O19">
-        <v>3.724965294525816</v>
+        <v>7.543108885039544</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.613996157819116</v>
+        <v>1.264926832796135</v>
       </c>
       <c r="C20">
-        <v>0.1025194613290736</v>
+        <v>0.09625845245556519</v>
       </c>
       <c r="D20">
-        <v>0.3361286541071422</v>
+        <v>0.5328686253061932</v>
       </c>
       <c r="E20">
-        <v>0.07282415038686629</v>
+        <v>0.1716532721364263</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008309691803322289</v>
+        <v>0.002556947924366774</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0294129816506592</v>
+        <v>0.06820980776010277</v>
       </c>
       <c r="K20">
-        <v>1.298673850135572</v>
+        <v>0.7134465095956273</v>
       </c>
       <c r="L20">
-        <v>0.2446193812815523</v>
+        <v>0.3884992004219185</v>
       </c>
       <c r="M20">
-        <v>0.348409752369399</v>
+        <v>0.3535420587700813</v>
       </c>
       <c r="N20">
-        <v>1.333003991078868</v>
+        <v>3.097940027137867</v>
       </c>
       <c r="O20">
-        <v>3.753299898767011</v>
+        <v>7.537248895607263</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.80907717413848</v>
+        <v>1.311765660210796</v>
       </c>
       <c r="C21">
-        <v>0.1078641928031203</v>
+        <v>0.09810582335928331</v>
       </c>
       <c r="D21">
-        <v>0.3612235524492462</v>
+        <v>0.5364557485938519</v>
       </c>
       <c r="E21">
-        <v>0.07466447881791538</v>
+        <v>0.1713339095905404</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008256331272562571</v>
+        <v>0.00255370436093456</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02934427966222586</v>
+        <v>0.06816915701089954</v>
       </c>
       <c r="K21">
-        <v>1.465302055749618</v>
+        <v>0.7565673139584419</v>
       </c>
       <c r="L21">
-        <v>0.2647490480256067</v>
+        <v>0.3917215082227159</v>
       </c>
       <c r="M21">
-        <v>0.387257976385321</v>
+        <v>0.362118589955422</v>
       </c>
       <c r="N21">
-        <v>1.269297388690255</v>
+        <v>3.070776932283948</v>
       </c>
       <c r="O21">
-        <v>3.856329387940747</v>
+        <v>7.520875413944111</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.937990655302656</v>
+        <v>1.342813361845117</v>
       </c>
       <c r="C22">
-        <v>0.1113675338017615</v>
+        <v>0.09930146437719145</v>
       </c>
       <c r="D22">
-        <v>0.3780396986472994</v>
+        <v>0.5389759803592113</v>
       </c>
       <c r="E22">
-        <v>0.0759431327956861</v>
+        <v>0.171166927478275</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008222103722541113</v>
+        <v>0.002551666233496622</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02930305761856822</v>
+        <v>0.06814432341194987</v>
       </c>
       <c r="K22">
-        <v>1.575183053810093</v>
+        <v>0.7849709388691508</v>
       </c>
       <c r="L22">
-        <v>0.2781766080089909</v>
+        <v>0.3939472166581908</v>
       </c>
       <c r="M22">
-        <v>0.4129869495622032</v>
+        <v>0.367844913182175</v>
       </c>
       <c r="N22">
-        <v>1.229222323227816</v>
+        <v>3.053711237005892</v>
       </c>
       <c r="O22">
-        <v>3.929857601605107</v>
+        <v>7.51264225591072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869048461890742</v>
+        <v>1.326202960057515</v>
       </c>
       <c r="C23">
-        <v>0.1094965895044027</v>
+        <v>0.09866440340150717</v>
       </c>
       <c r="D23">
-        <v>0.3690248277153358</v>
+        <v>0.5376148352602286</v>
       </c>
       <c r="E23">
-        <v>0.07525352613381742</v>
+        <v>0.1712522382913804</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008240314276179895</v>
+        <v>0.002552746563829828</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02932471532252734</v>
+        <v>0.06815741934746367</v>
       </c>
       <c r="K23">
-        <v>1.516440563815422</v>
+        <v>0.7697912649645389</v>
       </c>
       <c r="L23">
-        <v>0.2709839669062859</v>
+        <v>0.3927483906029607</v>
       </c>
       <c r="M23">
-        <v>0.3992219173499976</v>
+        <v>0.3647776373842291</v>
       </c>
       <c r="N23">
-        <v>1.250464681694964</v>
+        <v>3.062756672409918</v>
       </c>
       <c r="O23">
-        <v>3.890023789820987</v>
+        <v>7.516810834236082</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.610829626397077</v>
+        <v>1.264168682730229</v>
       </c>
       <c r="C24">
-        <v>0.1024322328498712</v>
+        <v>0.09622806079321577</v>
       </c>
       <c r="D24">
-        <v>0.3357251122378244</v>
+        <v>0.5328129729512909</v>
       </c>
       <c r="E24">
-        <v>0.0727953045051617</v>
+        <v>0.1716591985090457</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000831057526882472</v>
+        <v>0.002557002323453897</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02941416523108842</v>
+        <v>0.06821050154811648</v>
       </c>
       <c r="K24">
-        <v>1.295965364465644</v>
+        <v>0.7127455005173715</v>
       </c>
       <c r="L24">
-        <v>0.2442946892044944</v>
+        <v>0.3884485623719343</v>
       </c>
       <c r="M24">
-        <v>0.3477801083295802</v>
+        <v>0.3534039343578073</v>
       </c>
       <c r="N24">
-        <v>1.334070805804402</v>
+        <v>3.098395593306435</v>
       </c>
       <c r="O24">
-        <v>3.751715321033203</v>
+        <v>7.537558218178702</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.337527018689173</v>
+        <v>1.199147588733922</v>
       </c>
       <c r="C25">
-        <v>0.09483675501127209</v>
+        <v>0.09354998561101979</v>
       </c>
       <c r="D25">
-        <v>0.3014184315238282</v>
+        <v>0.5283922732091924</v>
       </c>
       <c r="E25">
-        <v>0.07044854385900834</v>
+        <v>0.1722782361266635</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008389314862728318</v>
+        <v>0.002561945931828739</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02952583506577167</v>
+        <v>0.06827524886432812</v>
       </c>
       <c r="K25">
-        <v>1.061664302070483</v>
+        <v>0.6521800514976235</v>
       </c>
       <c r="L25">
-        <v>0.2165543643233576</v>
+        <v>0.3843279195306835</v>
       </c>
       <c r="M25">
-        <v>0.2935650908625576</v>
+        <v>0.3416601296652075</v>
       </c>
       <c r="N25">
-        <v>1.430610724559521</v>
+        <v>3.139788437071736</v>
       </c>
       <c r="O25">
-        <v>3.626857366284327</v>
+        <v>7.570552898909483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.152912314591731</v>
+        <v>1.139879297360835</v>
       </c>
       <c r="C2">
-        <v>0.09153488514983366</v>
+        <v>0.08924478433588945</v>
       </c>
       <c r="D2">
-        <v>0.5257931236919404</v>
+        <v>0.2773660793046844</v>
       </c>
       <c r="E2">
-        <v>0.1728898487075377</v>
+        <v>0.06896089803102612</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002565892654596835</v>
+        <v>0.0008450020519095158</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06832942028598588</v>
+        <v>0.02962054273001336</v>
       </c>
       <c r="K2">
-        <v>0.6084244706602533</v>
+        <v>0.8914368081157704</v>
       </c>
       <c r="L2">
-        <v>0.3817415372010515</v>
+        <v>0.1969063353096629</v>
       </c>
       <c r="M2">
-        <v>0.3334672989715379</v>
+        <v>0.2545460748787782</v>
       </c>
       <c r="N2">
-        <v>3.172810236860332</v>
+        <v>1.506826068907255</v>
       </c>
       <c r="O2">
-        <v>7.603997695886903</v>
+        <v>3.553536351537275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.122607785687222</v>
+        <v>1.007752788835688</v>
       </c>
       <c r="C3">
-        <v>0.09014219837622051</v>
+        <v>0.08544623630947257</v>
       </c>
       <c r="D3">
-        <v>0.5244424576332847</v>
+        <v>0.2617369305858119</v>
       </c>
       <c r="E3">
-        <v>0.1734020414272202</v>
+        <v>0.06809256579931677</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002568760308303305</v>
+        <v>0.0008492952967965407</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06837021560265555</v>
+        <v>0.02969227247877715</v>
       </c>
       <c r="K3">
-        <v>0.579298000960506</v>
+        <v>0.7771646496051972</v>
       </c>
       <c r="L3">
-        <v>0.3802693966747839</v>
+        <v>0.1840187212393047</v>
       </c>
       <c r="M3">
-        <v>0.3281998855934134</v>
+        <v>0.2285745135083808</v>
       </c>
       <c r="N3">
-        <v>3.196780007223172</v>
+        <v>1.56152804602927</v>
       </c>
       <c r="O3">
-        <v>7.632383548754603</v>
+        <v>3.514402296955154</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.104511427369232</v>
+        <v>0.9273995680404994</v>
       </c>
       <c r="C4">
-        <v>0.0892737462161719</v>
+        <v>0.08310684600854756</v>
       </c>
       <c r="D4">
-        <v>0.5238164316904204</v>
+        <v>0.2524467433599682</v>
       </c>
       <c r="E4">
-        <v>0.1737648938448082</v>
+        <v>0.06762532963417911</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002570616732927786</v>
+        <v>0.0008520224795098067</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06839728786289756</v>
+        <v>0.02973996668894863</v>
       </c>
       <c r="K4">
-        <v>0.561676104069349</v>
+        <v>0.7074391183108304</v>
       </c>
       <c r="L4">
-        <v>0.3795044906745488</v>
+        <v>0.1762995956683255</v>
       </c>
       <c r="M4">
-        <v>0.3251069130012034</v>
+        <v>0.2128337389843367</v>
       </c>
       <c r="N4">
-        <v>3.21228313511385</v>
+        <v>1.596572885421185</v>
       </c>
       <c r="O4">
-        <v>7.652638335482976</v>
+        <v>3.495258837992424</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.097266079878295</v>
+        <v>0.8948323457864262</v>
       </c>
       <c r="C5">
-        <v>0.08891649674404789</v>
+        <v>0.08215138691255675</v>
       </c>
       <c r="D5">
-        <v>0.5236125631315645</v>
+        <v>0.248734465932003</v>
       </c>
       <c r="E5">
-        <v>0.1739249486411776</v>
+        <v>0.06745107933852168</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002571397370575921</v>
+        <v>0.0008531571190237073</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06840883039371937</v>
+        <v>0.02976031126752199</v>
       </c>
       <c r="K5">
-        <v>0.554561339224577</v>
+        <v>0.6791218909885259</v>
       </c>
       <c r="L5">
-        <v>0.3792278388239154</v>
+        <v>0.1732003963180659</v>
       </c>
       <c r="M5">
-        <v>0.3238821601453985</v>
+        <v>0.2064673469999327</v>
       </c>
       <c r="N5">
-        <v>3.21879843538596</v>
+        <v>1.611213710998246</v>
       </c>
       <c r="O5">
-        <v>7.661603646261881</v>
+        <v>3.488641148293766</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.096070809371554</v>
+        <v>0.8894348157624847</v>
       </c>
       <c r="C6">
-        <v>0.08885697368295098</v>
+        <v>0.08199259436334216</v>
       </c>
       <c r="D6">
-        <v>0.5235818094470659</v>
+        <v>0.2481223899057738</v>
       </c>
       <c r="E6">
-        <v>0.1739522626564352</v>
+        <v>0.06742310873943502</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002571528454254532</v>
+        <v>0.0008533469424814679</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0684107778904739</v>
+        <v>0.02976374409796723</v>
       </c>
       <c r="K6">
-        <v>0.5533839556637759</v>
+        <v>0.6744252796378589</v>
       </c>
       <c r="L6">
-        <v>0.3791840211566679</v>
+        <v>0.1726885129111366</v>
       </c>
       <c r="M6">
-        <v>0.3236809487551113</v>
+        <v>0.2054130141334944</v>
       </c>
       <c r="N6">
-        <v>3.219892236759947</v>
+        <v>1.613666347119779</v>
       </c>
       <c r="O6">
-        <v>7.663135313768237</v>
+        <v>3.487612490601975</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.104413190656402</v>
+        <v>0.9269596587660942</v>
       </c>
       <c r="C7">
-        <v>0.08926894177336209</v>
+        <v>0.0830939694730688</v>
       </c>
       <c r="D7">
-        <v>0.5238134746055891</v>
+        <v>0.2523963849136948</v>
       </c>
       <c r="E7">
-        <v>0.1737670030076259</v>
+        <v>0.06762291477992477</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00257062716290884</v>
+        <v>0.0008520376868866906</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06839744146114146</v>
+        <v>0.02974023739528686</v>
       </c>
       <c r="K7">
-        <v>0.5615798828134757</v>
+        <v>0.7070568491031253</v>
       </c>
       <c r="L7">
-        <v>0.3795006175838651</v>
+        <v>0.1762576139075094</v>
       </c>
       <c r="M7">
-        <v>0.3250902509863565</v>
+        <v>0.2127476895410219</v>
       </c>
       <c r="N7">
-        <v>3.212370202317373</v>
+        <v>1.596768888688896</v>
       </c>
       <c r="O7">
-        <v>7.652756363687018</v>
+        <v>3.495164855609545</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.142357676429015</v>
+        <v>1.094151089318331</v>
       </c>
       <c r="C8">
-        <v>0.09105745775769236</v>
+        <v>0.08793628566468925</v>
       </c>
       <c r="D8">
-        <v>0.5252852940892865</v>
+        <v>0.2719114741236979</v>
       </c>
       <c r="E8">
-        <v>0.1730564314489769</v>
+        <v>0.06864755216199825</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002566861607763858</v>
+        <v>0.0008464636857772272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06834306735797036</v>
+        <v>0.02964451121992084</v>
       </c>
       <c r="K8">
-        <v>0.5983275723927193</v>
+        <v>0.8519363738188588</v>
       </c>
       <c r="L8">
-        <v>0.3812051550222932</v>
+        <v>0.1924209775514854</v>
       </c>
       <c r="M8">
-        <v>0.3316218634536163</v>
+        <v>0.2455460784409524</v>
       </c>
       <c r="N8">
-        <v>3.18091202994222</v>
+        <v>1.525380618674706</v>
       </c>
       <c r="O8">
-        <v>7.613199100485559</v>
+        <v>3.539001260286256</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.220796232579886</v>
+        <v>1.428974671121438</v>
       </c>
       <c r="C9">
-        <v>0.09445880840732457</v>
+        <v>0.0973939224413769</v>
       </c>
       <c r="D9">
-        <v>0.5297797430536235</v>
+        <v>0.3127756759489557</v>
       </c>
       <c r="E9">
-        <v>0.1720455726569465</v>
+        <v>0.07120033220708955</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002560233223262081</v>
+        <v>0.0008362379509862948</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06825243302527895</v>
+        <v>0.02948624404245948</v>
       </c>
       <c r="K9">
-        <v>0.672451865374228</v>
+        <v>1.140186797013683</v>
       </c>
       <c r="L9">
-        <v>0.3856466157283478</v>
+        <v>0.2257700937776832</v>
       </c>
       <c r="M9">
-        <v>0.3455457261583348</v>
+        <v>0.3116753516211546</v>
       </c>
       <c r="N9">
-        <v>3.125450385904813</v>
+        <v>1.397272345597955</v>
       </c>
       <c r="O9">
-        <v>7.558018571613218</v>
+        <v>3.665877377760012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.28085783879186</v>
+        <v>1.680459488428141</v>
       </c>
       <c r="C10">
-        <v>0.09689327612632326</v>
+        <v>0.1043466964292818</v>
       </c>
       <c r="D10">
-        <v>0.5340567364804656</v>
+        <v>0.3446276460550735</v>
       </c>
       <c r="E10">
-        <v>0.1715346135220575</v>
+        <v>0.07343744696672516</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002555819565331291</v>
+        <v>0.0008291281896731122</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06819550699499555</v>
+        <v>0.02938866161731024</v>
       </c>
       <c r="K10">
-        <v>0.7281532288558878</v>
+        <v>1.355494048438572</v>
       </c>
       <c r="L10">
-        <v>0.3895750416492092</v>
+        <v>0.2514500878094594</v>
       </c>
       <c r="M10">
-        <v>0.356449883292413</v>
+        <v>0.3616326874383944</v>
       </c>
       <c r="N10">
-        <v>3.088490456556464</v>
+        <v>1.31086106820203</v>
       </c>
       <c r="O10">
-        <v>7.531092480789709</v>
+        <v>3.787225359501235</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.308705097279045</v>
+        <v>1.796356508888351</v>
       </c>
       <c r="C11">
-        <v>0.0979867987382832</v>
+        <v>0.1075173306117776</v>
       </c>
       <c r="D11">
-        <v>0.536213046569344</v>
+        <v>0.3595738129449444</v>
       </c>
       <c r="E11">
-        <v>0.1713521683017589</v>
+        <v>0.0745408755150585</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002553909768868521</v>
+        <v>0.0008259750682442798</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0681716899144913</v>
+        <v>0.02934851917544012</v>
       </c>
       <c r="K11">
-        <v>0.7537601734641441</v>
+        <v>1.454450004073408</v>
       </c>
       <c r="L11">
-        <v>0.3915057172687568</v>
+        <v>0.2634292385904331</v>
       </c>
       <c r="M11">
-        <v>0.3615557709717834</v>
+        <v>0.3847215045820107</v>
       </c>
       <c r="N11">
-        <v>3.072497020894247</v>
+        <v>1.273335678329104</v>
       </c>
       <c r="O11">
-        <v>7.521792491190553</v>
+        <v>3.849299925983502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319325072928933</v>
+        <v>1.840484970742835</v>
       </c>
       <c r="C12">
-        <v>0.09839888145141629</v>
+        <v>0.108719686294485</v>
       </c>
       <c r="D12">
-        <v>0.5370597713825447</v>
+        <v>0.3653043782821754</v>
       </c>
       <c r="E12">
-        <v>0.1712902432977081</v>
+        <v>0.07497168448375291</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002553200596995375</v>
+        <v>0.0008247921898684823</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06816296850045589</v>
+        <v>0.02933394748522655</v>
       </c>
       <c r="K12">
-        <v>0.7634950392958331</v>
+        <v>1.492088729785138</v>
       </c>
       <c r="L12">
-        <v>0.3922573737982731</v>
+        <v>0.2680117742208381</v>
       </c>
       <c r="M12">
-        <v>0.3635100415447283</v>
+        <v>0.393522476985126</v>
       </c>
       <c r="N12">
-        <v>3.066558512375906</v>
+        <v>1.259392493121467</v>
       </c>
       <c r="O12">
-        <v>7.518694227018727</v>
+        <v>3.873862572179888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.317034553903085</v>
+        <v>1.830969978065212</v>
       </c>
       <c r="C13">
-        <v>0.09831022160802405</v>
+        <v>0.1084606517518267</v>
       </c>
       <c r="D13">
-        <v>0.5368760738107454</v>
+        <v>0.3640669652563133</v>
       </c>
       <c r="E13">
-        <v>0.1713032617874539</v>
+        <v>0.07487831491334518</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002553352707169651</v>
+        <v>0.0008250464572248742</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06816483359851055</v>
+        <v>0.0293370574502454</v>
       </c>
       <c r="K13">
-        <v>0.7613967762037817</v>
+        <v>1.483974815008906</v>
       </c>
       <c r="L13">
-        <v>0.3920945786704806</v>
+        <v>0.2670227249975312</v>
       </c>
       <c r="M13">
-        <v>0.3630882324547002</v>
+        <v>0.3916243695704864</v>
       </c>
       <c r="N13">
-        <v>3.06783223510606</v>
+        <v>1.262383364892656</v>
       </c>
       <c r="O13">
-        <v>7.519342670493927</v>
+        <v>3.868524448043161</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.309577313286724</v>
+        <v>1.799982004269339</v>
       </c>
       <c r="C14">
-        <v>0.09802074136919003</v>
+        <v>0.1076162114181258</v>
       </c>
       <c r="D14">
-        <v>0.5362821030199001</v>
+        <v>0.3600438209071513</v>
       </c>
       <c r="E14">
-        <v>0.1713469302839563</v>
+        <v>0.07457605481742746</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002553851144189111</v>
+        <v>0.0008258775320628536</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06817096644172516</v>
+        <v>0.02934730762653182</v>
       </c>
       <c r="K14">
-        <v>0.7545603064885711</v>
+        <v>1.457543108148144</v>
       </c>
       <c r="L14">
-        <v>0.391567145191857</v>
+        <v>0.2638052975287906</v>
       </c>
       <c r="M14">
-        <v>0.3617161343247872</v>
+        <v>0.3854443755206347</v>
       </c>
       <c r="N14">
-        <v>3.072006094330007</v>
+        <v>1.272183153437332</v>
       </c>
       <c r="O14">
-        <v>7.521529112168594</v>
+        <v>3.851299131149318</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.305019262651399</v>
+        <v>1.781033128056009</v>
       </c>
       <c r="C15">
-        <v>0.09784316430358331</v>
+        <v>0.1070992076911494</v>
       </c>
       <c r="D15">
-        <v>0.5359222051597214</v>
+        <v>0.3575889042034532</v>
       </c>
       <c r="E15">
-        <v>0.1713746105732987</v>
+        <v>0.0743926196803173</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002554158276061158</v>
+        <v>0.0008263880239349153</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0681747617018722</v>
+        <v>0.02935366870443357</v>
       </c>
       <c r="K15">
-        <v>0.7503777151071063</v>
+        <v>1.441375218817257</v>
       </c>
       <c r="L15">
-        <v>0.3912467504121508</v>
+        <v>0.2618406686785875</v>
       </c>
       <c r="M15">
-        <v>0.3608783866765677</v>
+        <v>0.3816666413739185</v>
       </c>
       <c r="N15">
-        <v>3.074578051415678</v>
+        <v>1.278220882218179</v>
       </c>
       <c r="O15">
-        <v>7.522923497571242</v>
+        <v>3.840887800523376</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.279048461396684</v>
+        <v>1.672917594037131</v>
       </c>
       <c r="C16">
-        <v>0.09682153091623746</v>
+        <v>0.1041396935881309</v>
       </c>
       <c r="D16">
-        <v>0.5339200458623594</v>
+        <v>0.3436604958922231</v>
       </c>
       <c r="E16">
-        <v>0.1715475405146911</v>
+        <v>0.07336711405506335</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002555946341560677</v>
+        <v>0.0008293358420061774</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06819710521445899</v>
+        <v>0.0293913720388268</v>
       </c>
       <c r="K16">
-        <v>0.7264851086803503</v>
+        <v>1.349049142112278</v>
       </c>
       <c r="L16">
-        <v>0.3894517487971143</v>
+        <v>0.2506735005571699</v>
       </c>
       <c r="M16">
-        <v>0.3561191175501435</v>
+        <v>0.3601315476813767</v>
       </c>
       <c r="N16">
-        <v>3.089552159376723</v>
+        <v>1.313350201449474</v>
       </c>
       <c r="O16">
-        <v>7.53175954370127</v>
+        <v>3.783312644575886</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.26325019312776</v>
+        <v>1.606992942764606</v>
       </c>
       <c r="C17">
-        <v>0.09619121897583227</v>
+        <v>0.1023265220914524</v>
       </c>
       <c r="D17">
-        <v>0.5327456624519726</v>
+        <v>0.3352363376922654</v>
       </c>
       <c r="E17">
-        <v>0.1716664133281736</v>
+        <v>0.07276040031924857</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002557068314905764</v>
+        <v>0.0008311646502963842</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06821134372359605</v>
+        <v>0.0294156023991059</v>
       </c>
       <c r="K17">
-        <v>0.7118960955945681</v>
+        <v>1.292683492955803</v>
       </c>
       <c r="L17">
-        <v>0.3883872854012225</v>
+        <v>0.2439013732957136</v>
       </c>
       <c r="M17">
-        <v>0.353236630673301</v>
+        <v>0.347017251211625</v>
       </c>
       <c r="N17">
-        <v>3.098948242502175</v>
+        <v>1.335364868342374</v>
       </c>
       <c r="O17">
-        <v>7.537935010006635</v>
+        <v>3.749799326731619</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.254212895727164</v>
+        <v>1.569213923943892</v>
       </c>
       <c r="C18">
-        <v>0.09582736961399974</v>
+        <v>0.101284328304736</v>
       </c>
       <c r="D18">
-        <v>0.5320900259000894</v>
+        <v>0.3304336297558592</v>
       </c>
       <c r="E18">
-        <v>0.1717394929099534</v>
+        <v>0.07241946579094183</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002557722872323575</v>
+        <v>0.0008322242037745462</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06821972908834262</v>
+        <v>0.02942993770444158</v>
       </c>
       <c r="K18">
-        <v>0.7035301462596237</v>
+        <v>1.260357346955772</v>
       </c>
       <c r="L18">
-        <v>0.3877885579000662</v>
+        <v>0.240033970516663</v>
       </c>
       <c r="M18">
-        <v>0.3515924073076064</v>
+        <v>0.3395080647266724</v>
       </c>
       <c r="N18">
-        <v>3.104429788093917</v>
+        <v>1.348194331382587</v>
       </c>
       <c r="O18">
-        <v>7.541764567556385</v>
+        <v>3.731165892738602</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.251161535124169</v>
+        <v>1.556445732851472</v>
       </c>
       <c r="C19">
-        <v>0.09570395160702816</v>
+        <v>0.1009315616357256</v>
       </c>
       <c r="D19">
-        <v>0.5318714494088397</v>
+        <v>0.3288146892308674</v>
       </c>
       <c r="E19">
-        <v>0.1717650456357731</v>
+        <v>0.0723053919787251</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002557946081166067</v>
+        <v>0.0008325842834102576</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0682226018904224</v>
+        <v>0.0294348593306264</v>
       </c>
       <c r="K19">
-        <v>0.7007019335860036</v>
+        <v>1.249427785550978</v>
       </c>
       <c r="L19">
-        <v>0.3875881648157105</v>
+        <v>0.2387291955110413</v>
       </c>
       <c r="M19">
-        <v>0.3510380601302714</v>
+        <v>0.3369712276617918</v>
       </c>
       <c r="N19">
-        <v>3.106298999772889</v>
+        <v>1.352566580845547</v>
       </c>
       <c r="O19">
-        <v>7.543108885039544</v>
+        <v>3.724965294525788</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.264926832796135</v>
+        <v>1.613996157819059</v>
       </c>
       <c r="C20">
-        <v>0.09625845245556519</v>
+        <v>0.1025194613293223</v>
       </c>
       <c r="D20">
-        <v>0.5328686253061932</v>
+        <v>0.3361286541072417</v>
       </c>
       <c r="E20">
-        <v>0.1716532721364263</v>
+        <v>0.07282415038686629</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002556947924366774</v>
+        <v>0.0008309691803654504</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06820980776010277</v>
+        <v>0.02941298165062101</v>
       </c>
       <c r="K20">
-        <v>0.7134465095956273</v>
+        <v>1.298673850135685</v>
       </c>
       <c r="L20">
-        <v>0.3884992004219185</v>
+        <v>0.2446193812816233</v>
       </c>
       <c r="M20">
-        <v>0.3535420587700813</v>
+        <v>0.348409752369399</v>
       </c>
       <c r="N20">
-        <v>3.097940027137867</v>
+        <v>1.333003991078904</v>
       </c>
       <c r="O20">
-        <v>7.537248895607263</v>
+        <v>3.753299898767153</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.311765660210796</v>
+        <v>1.809077174138451</v>
       </c>
       <c r="C21">
-        <v>0.09810582335928331</v>
+        <v>0.1078641928029995</v>
       </c>
       <c r="D21">
-        <v>0.5364557485938519</v>
+        <v>0.3612235524491751</v>
       </c>
       <c r="E21">
-        <v>0.1713339095905404</v>
+        <v>0.07466447881788341</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00255370436093456</v>
+        <v>0.0008256331272965841</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06816915701089954</v>
+        <v>0.02934427966212105</v>
       </c>
       <c r="K21">
-        <v>0.7565673139584419</v>
+        <v>1.465302055749561</v>
       </c>
       <c r="L21">
-        <v>0.3917215082227159</v>
+        <v>0.2647490480255072</v>
       </c>
       <c r="M21">
-        <v>0.362118589955422</v>
+        <v>0.3872579763853139</v>
       </c>
       <c r="N21">
-        <v>3.070776932283948</v>
+        <v>1.269297388690291</v>
       </c>
       <c r="O21">
-        <v>7.520875413944111</v>
+        <v>3.85632938794069</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.342813361845117</v>
+        <v>1.937990655302883</v>
       </c>
       <c r="C22">
-        <v>0.09930146437719145</v>
+        <v>0.1113675338020315</v>
       </c>
       <c r="D22">
-        <v>0.5389759803592113</v>
+        <v>0.3780396986474415</v>
       </c>
       <c r="E22">
-        <v>0.171166927478275</v>
+        <v>0.0759431327956861</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002551666233496622</v>
+        <v>0.0008222103722191898</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06814432341194987</v>
+        <v>0.02930305761863305</v>
       </c>
       <c r="K22">
-        <v>0.7849709388691508</v>
+        <v>1.575183053810036</v>
       </c>
       <c r="L22">
-        <v>0.3939472166581908</v>
+        <v>0.2781766080090762</v>
       </c>
       <c r="M22">
-        <v>0.367844913182175</v>
+        <v>0.4129869495622032</v>
       </c>
       <c r="N22">
-        <v>3.053711237005892</v>
+        <v>1.229222323227823</v>
       </c>
       <c r="O22">
-        <v>7.51264225591072</v>
+        <v>3.92985760160505</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.326202960057515</v>
+        <v>1.869048461890713</v>
       </c>
       <c r="C23">
-        <v>0.09866440340150717</v>
+        <v>0.1094965895044098</v>
       </c>
       <c r="D23">
-        <v>0.5376148352602286</v>
+        <v>0.3690248277152222</v>
       </c>
       <c r="E23">
-        <v>0.1712522382913804</v>
+        <v>0.07525352613374992</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002552746563829828</v>
+        <v>0.0008240314275892348</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06815741934746367</v>
+        <v>0.02932471532253622</v>
       </c>
       <c r="K23">
-        <v>0.7697912649645389</v>
+        <v>1.516440563815422</v>
       </c>
       <c r="L23">
-        <v>0.3927483906029607</v>
+        <v>0.2709839669062717</v>
       </c>
       <c r="M23">
-        <v>0.3647776373842291</v>
+        <v>0.3992219173499976</v>
       </c>
       <c r="N23">
-        <v>3.062756672409918</v>
+        <v>1.250464681694943</v>
       </c>
       <c r="O23">
-        <v>7.516810834236082</v>
+        <v>3.890023789820901</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.264168682730229</v>
+        <v>1.610829626397106</v>
       </c>
       <c r="C24">
-        <v>0.09622806079321577</v>
+        <v>0.102432232849857</v>
       </c>
       <c r="D24">
-        <v>0.5328129729512909</v>
+        <v>0.3357251122377107</v>
       </c>
       <c r="E24">
-        <v>0.1716591985090457</v>
+        <v>0.07279530450517235</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002557002323453897</v>
+        <v>0.000831057526877889</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06821050154811648</v>
+        <v>0.02941416523107421</v>
       </c>
       <c r="K24">
-        <v>0.7127455005173715</v>
+        <v>1.295965364465644</v>
       </c>
       <c r="L24">
-        <v>0.3884485623719343</v>
+        <v>0.2442946892044802</v>
       </c>
       <c r="M24">
-        <v>0.3534039343578073</v>
+        <v>0.3477801083295873</v>
       </c>
       <c r="N24">
-        <v>3.098395593306435</v>
+        <v>1.334070805804394</v>
       </c>
       <c r="O24">
-        <v>7.537558218178702</v>
+        <v>3.751715321033259</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.199147588733922</v>
+        <v>1.337527018689372</v>
       </c>
       <c r="C25">
-        <v>0.09354998561101979</v>
+        <v>0.09483675501139288</v>
       </c>
       <c r="D25">
-        <v>0.5283922732091924</v>
+        <v>0.3014184315237287</v>
       </c>
       <c r="E25">
-        <v>0.1722782361266635</v>
+        <v>0.07044854385902433</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002561945931828739</v>
+        <v>0.0008389314862730538</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06827524886432812</v>
+        <v>0.02952583506577611</v>
       </c>
       <c r="K25">
-        <v>0.6521800514976235</v>
+        <v>1.06166430207054</v>
       </c>
       <c r="L25">
-        <v>0.3843279195306835</v>
+        <v>0.2165543643233079</v>
       </c>
       <c r="M25">
-        <v>0.3416601296652075</v>
+        <v>0.2935650908625576</v>
       </c>
       <c r="N25">
-        <v>3.139788437071736</v>
+        <v>1.430610724559511</v>
       </c>
       <c r="O25">
-        <v>7.570552898909483</v>
+        <v>3.62685736628427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139879297360835</v>
+        <v>2.567676702214669</v>
       </c>
       <c r="C2">
-        <v>0.08924478433588945</v>
+        <v>0.4661712967066478</v>
       </c>
       <c r="D2">
-        <v>0.2773660793046844</v>
+        <v>0.2338423557774831</v>
       </c>
       <c r="E2">
-        <v>0.06896089803102612</v>
+        <v>0.06266231253390497</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008450020519095158</v>
+        <v>0.4357790663222119</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.007617193503374586</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005541596532097515</v>
       </c>
       <c r="J2">
-        <v>0.02962054273001336</v>
+        <v>0.369773505842474</v>
       </c>
       <c r="K2">
-        <v>0.8914368081157704</v>
+        <v>0.3596208565833834</v>
       </c>
       <c r="L2">
-        <v>0.1969063353096629</v>
+        <v>0.06141973789674182</v>
       </c>
       <c r="M2">
-        <v>0.2545460748787782</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.506826068907255</v>
+        <v>0.2587962643996633</v>
       </c>
       <c r="O2">
-        <v>3.553536351537275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4824716624827019</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.645025371125342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.007752788835688</v>
+        <v>2.23798506712933</v>
       </c>
       <c r="C3">
-        <v>0.08544623630947257</v>
+        <v>0.4203693235834294</v>
       </c>
       <c r="D3">
-        <v>0.2617369305858119</v>
+        <v>0.2228151739603845</v>
       </c>
       <c r="E3">
-        <v>0.06809256579931677</v>
+        <v>0.06198025975237798</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008492952967965407</v>
+        <v>0.4240136473886764</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01013437536714506</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00753194636803789</v>
       </c>
       <c r="J3">
-        <v>0.02969227247877715</v>
+        <v>0.3692432729215938</v>
       </c>
       <c r="K3">
-        <v>0.7771646496051972</v>
+        <v>0.3685016307519895</v>
       </c>
       <c r="L3">
-        <v>0.1840187212393047</v>
+        <v>0.05676871891126112</v>
       </c>
       <c r="M3">
-        <v>0.2285745135083808</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.56152804602927</v>
+        <v>0.2334448472797703</v>
       </c>
       <c r="O3">
-        <v>3.514402296955154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4218651773480175</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.618648007337342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9273995680404994</v>
+        <v>2.035173422918433</v>
       </c>
       <c r="C4">
-        <v>0.08310684600854756</v>
+        <v>0.392396415903022</v>
       </c>
       <c r="D4">
-        <v>0.2524467433599682</v>
+        <v>0.2161683296422581</v>
       </c>
       <c r="E4">
-        <v>0.06762532963417911</v>
+        <v>0.06154916768097873</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008520224795098067</v>
+        <v>0.4172860732628294</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01192123652295642</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.008998287830982221</v>
       </c>
       <c r="J4">
-        <v>0.02973996668894863</v>
+        <v>0.3692525107747926</v>
       </c>
       <c r="K4">
-        <v>0.7074391183108304</v>
+        <v>0.3743267995669814</v>
       </c>
       <c r="L4">
-        <v>0.1762995956683255</v>
+        <v>0.05390136776481214</v>
       </c>
       <c r="M4">
-        <v>0.2128337389843367</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.596572885421185</v>
+        <v>0.2179552909789138</v>
       </c>
       <c r="O4">
-        <v>3.495258837992424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3846439018829173</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.604196750434113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8948323457864262</v>
+        <v>1.95235174015852</v>
       </c>
       <c r="C5">
-        <v>0.08215138691255675</v>
+        <v>0.3816638344763703</v>
       </c>
       <c r="D5">
-        <v>0.248734465932003</v>
+        <v>0.2134166506191661</v>
       </c>
       <c r="E5">
-        <v>0.06745107933852168</v>
+        <v>0.06134842145482189</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008531571190237073</v>
+        <v>0.4141628626639999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0127117068561696</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.009737355520833546</v>
       </c>
       <c r="J5">
-        <v>0.02976031126752199</v>
+        <v>0.3690762728775283</v>
       </c>
       <c r="K5">
-        <v>0.6791218909885259</v>
+        <v>0.3764487674320005</v>
       </c>
       <c r="L5">
-        <v>0.1732003963180659</v>
+        <v>0.05275411625085269</v>
       </c>
       <c r="M5">
-        <v>0.2064673469999327</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.611213710998246</v>
+        <v>0.2118061424643898</v>
       </c>
       <c r="O5">
-        <v>3.488641148293766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3695486466353231</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.597119387869725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8894348157624847</v>
+        <v>1.938507901617982</v>
       </c>
       <c r="C6">
-        <v>0.08199259436334216</v>
+        <v>0.3806604486200627</v>
       </c>
       <c r="D6">
-        <v>0.2481223899057738</v>
+        <v>0.2128722362515276</v>
       </c>
       <c r="E6">
-        <v>0.06742310873943502</v>
+        <v>0.06128818535526648</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008533469424814679</v>
+        <v>0.4130394516846607</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01285131756693825</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.009971768919975865</v>
       </c>
       <c r="J6">
-        <v>0.02976374409796723</v>
+        <v>0.3687320717765417</v>
       </c>
       <c r="K6">
-        <v>0.6744252796378589</v>
+        <v>0.3763884112939362</v>
       </c>
       <c r="L6">
-        <v>0.1726885129111366</v>
+        <v>0.05259398521092251</v>
       </c>
       <c r="M6">
-        <v>0.2054130141334944</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.613666347119779</v>
+        <v>0.2109646012597892</v>
       </c>
       <c r="O6">
-        <v>3.487612490601975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3671364137786739</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.594002371863866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9269596587660942</v>
+        <v>2.033823185784229</v>
       </c>
       <c r="C7">
-        <v>0.0830939694730688</v>
+        <v>0.3943801029603264</v>
       </c>
       <c r="D7">
-        <v>0.2523963849136948</v>
+        <v>0.2158876994454033</v>
       </c>
       <c r="E7">
-        <v>0.06762291477992477</v>
+        <v>0.06147403833835341</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008520376868866906</v>
+        <v>0.4155736185723313</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0119442119739635</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00928683797793628</v>
       </c>
       <c r="J7">
-        <v>0.02974023739528686</v>
+        <v>0.3683782334345267</v>
       </c>
       <c r="K7">
-        <v>0.7070568491031253</v>
+        <v>0.3732167614277433</v>
       </c>
       <c r="L7">
-        <v>0.1762576139075094</v>
+        <v>0.05397012173252591</v>
       </c>
       <c r="M7">
-        <v>0.2127476895410219</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.596768888688896</v>
+        <v>0.2183607288784373</v>
       </c>
       <c r="O7">
-        <v>3.495164855609545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3846990628295046</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.598734437492581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.094151089318331</v>
+        <v>2.453752589920384</v>
       </c>
       <c r="C8">
-        <v>0.08793628566468925</v>
+        <v>0.4531974137709653</v>
       </c>
       <c r="D8">
-        <v>0.2719114741236979</v>
+        <v>0.2296934325772355</v>
       </c>
       <c r="E8">
-        <v>0.06864755216199825</v>
+        <v>0.06233604667090731</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008464636857772272</v>
+        <v>0.4294143007437867</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.008446548962158199</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006509225024837306</v>
       </c>
       <c r="J8">
-        <v>0.02964451121992084</v>
+        <v>0.3683755795924597</v>
       </c>
       <c r="K8">
-        <v>0.8519363738188588</v>
+        <v>0.3611181999339763</v>
       </c>
       <c r="L8">
-        <v>0.1924209775514854</v>
+        <v>0.05993217181482535</v>
       </c>
       <c r="M8">
-        <v>0.2455460784409524</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.525380618674706</v>
+        <v>0.2506887101438195</v>
       </c>
       <c r="O8">
-        <v>3.539001260286256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4619178802522157</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.628495067990215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.428974671121438</v>
+        <v>3.27517196853853</v>
       </c>
       <c r="C9">
-        <v>0.0973939224413769</v>
+        <v>0.5660584026815059</v>
       </c>
       <c r="D9">
-        <v>0.3127756759489557</v>
+        <v>0.2582401312878488</v>
       </c>
       <c r="E9">
-        <v>0.07120033220708955</v>
+        <v>0.0640590303255113</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008362379509862948</v>
+        <v>0.4637478957984627</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003598137788634048</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002695201085448851</v>
       </c>
       <c r="J9">
-        <v>0.02948624404245948</v>
+        <v>0.3726899878891459</v>
       </c>
       <c r="K9">
-        <v>1.140186797013683</v>
+        <v>0.3424762107573862</v>
       </c>
       <c r="L9">
-        <v>0.2257700937776832</v>
+        <v>0.07141369582632962</v>
       </c>
       <c r="M9">
-        <v>0.3116753516211546</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.397272345597955</v>
+        <v>0.3139013366226777</v>
       </c>
       <c r="O9">
-        <v>3.665877377760012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6129357415132404</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.711076932672313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.680459488428141</v>
+        <v>3.881308710056487</v>
       </c>
       <c r="C10">
-        <v>0.1043466964292818</v>
+        <v>0.6561918972222429</v>
       </c>
       <c r="D10">
-        <v>0.3446276460550735</v>
+        <v>0.2755429272711325</v>
       </c>
       <c r="E10">
-        <v>0.07343744696672516</v>
+        <v>0.06430308450056899</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008291281896731122</v>
+        <v>0.4830742672201609</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001702156043880354</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001464568949756107</v>
       </c>
       <c r="J10">
-        <v>0.02938866161731024</v>
+        <v>0.3732032125141558</v>
       </c>
       <c r="K10">
-        <v>1.355494048438572</v>
+        <v>0.3258625919269704</v>
       </c>
       <c r="L10">
-        <v>0.2514500878094594</v>
+        <v>0.08211786765188478</v>
       </c>
       <c r="M10">
-        <v>0.3616326874383944</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.31086106820203</v>
+        <v>0.351841148716602</v>
       </c>
       <c r="O10">
-        <v>3.787225359501235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7193441883500853</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.753640559776329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.796356508888351</v>
+        <v>4.187587328578559</v>
       </c>
       <c r="C11">
-        <v>0.1075173306117776</v>
+        <v>0.7469978299176034</v>
       </c>
       <c r="D11">
-        <v>0.3595738129449444</v>
+        <v>0.2472238319519136</v>
       </c>
       <c r="E11">
-        <v>0.0745408755150585</v>
+        <v>0.0588506329256121</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008259750682442798</v>
+        <v>0.4224808156009061</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02013246230304233</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001747422277610156</v>
       </c>
       <c r="J11">
-        <v>0.02934851917544012</v>
+        <v>0.3380479314673437</v>
       </c>
       <c r="K11">
-        <v>1.454450004073408</v>
+        <v>0.2817866017299231</v>
       </c>
       <c r="L11">
-        <v>0.2634292385904331</v>
+        <v>0.1110606232745468</v>
       </c>
       <c r="M11">
-        <v>0.3847215045820107</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.273335678329104</v>
+        <v>0.2930525240583393</v>
       </c>
       <c r="O11">
-        <v>3.849299925983502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7253416883075658</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.551800210027693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.840484970742835</v>
+        <v>4.319662378317673</v>
       </c>
       <c r="C12">
-        <v>0.108719686294485</v>
+        <v>0.8042171484638629</v>
       </c>
       <c r="D12">
-        <v>0.3653043782821754</v>
+        <v>0.2213658524819522</v>
       </c>
       <c r="E12">
-        <v>0.07497168448375291</v>
+        <v>0.05784601985145521</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008247921898684823</v>
+        <v>0.37237332511652</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05886035186745175</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001698308591739917</v>
       </c>
       <c r="J12">
-        <v>0.02933394748522655</v>
+        <v>0.3106649495763989</v>
       </c>
       <c r="K12">
-        <v>1.492088729785138</v>
+        <v>0.2533265685412385</v>
       </c>
       <c r="L12">
-        <v>0.2680117742208381</v>
+        <v>0.1394493205680334</v>
       </c>
       <c r="M12">
-        <v>0.393522476985126</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.259392493121467</v>
+        <v>0.2399443156695469</v>
       </c>
       <c r="O12">
-        <v>3.873862572179888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7069595051069584</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.388323526167909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.830969978065212</v>
+        <v>4.323633350991827</v>
       </c>
       <c r="C13">
-        <v>0.1084606517518267</v>
+        <v>0.8416736404375911</v>
       </c>
       <c r="D13">
-        <v>0.3640669652563133</v>
+        <v>0.195591750894792</v>
       </c>
       <c r="E13">
-        <v>0.07487831491334518</v>
+        <v>0.05999313662624228</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008250464572248742</v>
+        <v>0.324683402317909</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.114836903175501</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001739488209600459</v>
       </c>
       <c r="J13">
-        <v>0.0293370574502454</v>
+        <v>0.2862099647702294</v>
       </c>
       <c r="K13">
-        <v>1.483974815008906</v>
+        <v>0.2332116461152278</v>
       </c>
       <c r="L13">
-        <v>0.2670227249975312</v>
+        <v>0.1687930016604113</v>
       </c>
       <c r="M13">
-        <v>0.3916243695704864</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.262383364892656</v>
+        <v>0.1891904820192138</v>
       </c>
       <c r="O13">
-        <v>3.868524448043161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6693007714595041</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.235999190382117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.799982004269339</v>
+        <v>4.268210620884645</v>
       </c>
       <c r="C14">
-        <v>0.1076162114181258</v>
+        <v>0.8597747148600945</v>
       </c>
       <c r="D14">
-        <v>0.3600438209071513</v>
+        <v>0.1778718959568906</v>
       </c>
       <c r="E14">
-        <v>0.07457605481742746</v>
+        <v>0.06333864079816642</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008258775320628536</v>
+        <v>0.292622188200987</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1644234478639532</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001910946347758014</v>
       </c>
       <c r="J14">
-        <v>0.02934730762653182</v>
+        <v>0.2704829839871152</v>
       </c>
       <c r="K14">
-        <v>1.457543108148144</v>
+        <v>0.2232230488278297</v>
       </c>
       <c r="L14">
-        <v>0.2638052975287906</v>
+        <v>0.1903933895910797</v>
       </c>
       <c r="M14">
-        <v>0.3854443755206347</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.272183153437332</v>
+        <v>0.1558728031542387</v>
       </c>
       <c r="O14">
-        <v>3.851299131149318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6344843362992876</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.135039637213211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.781033128056009</v>
+        <v>4.227046441842901</v>
       </c>
       <c r="C15">
-        <v>0.1070992076911494</v>
+        <v>0.8605229363943749</v>
       </c>
       <c r="D15">
-        <v>0.3575889042034532</v>
+        <v>0.1733699209431165</v>
       </c>
       <c r="E15">
-        <v>0.0743926196803173</v>
+        <v>0.06435837621829954</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008263880239349153</v>
+        <v>0.2845796965442631</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1770592783469027</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002105327357940112</v>
       </c>
       <c r="J15">
-        <v>0.02935366870443357</v>
+        <v>0.2669094196526913</v>
       </c>
       <c r="K15">
-        <v>1.441375218817257</v>
+        <v>0.2218983882245595</v>
       </c>
       <c r="L15">
-        <v>0.2618406686785875</v>
+        <v>0.1950435334715053</v>
       </c>
       <c r="M15">
-        <v>0.3816666413739185</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.278220882218179</v>
+        <v>0.1477646253666052</v>
       </c>
       <c r="O15">
-        <v>3.840887800523376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6221349602802633</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.110469447576023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.672917594037131</v>
+        <v>3.963448501589653</v>
       </c>
       <c r="C16">
-        <v>0.1041396935881309</v>
+        <v>0.8137919715233295</v>
       </c>
       <c r="D16">
-        <v>0.3436604958922231</v>
+        <v>0.1714626303105788</v>
       </c>
       <c r="E16">
-        <v>0.07336711405506335</v>
+        <v>0.06361156223949394</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008293358420061774</v>
+        <v>0.2850519610551743</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1650871159478697</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002665410458082995</v>
       </c>
       <c r="J16">
-        <v>0.0293913720388268</v>
+        <v>0.2710068279342792</v>
       </c>
       <c r="K16">
-        <v>1.349049142112278</v>
+        <v>0.2319362635625799</v>
       </c>
       <c r="L16">
-        <v>0.2506735005571699</v>
+        <v>0.1835070293228824</v>
       </c>
       <c r="M16">
-        <v>0.3601315476813767</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.313350201449474</v>
+        <v>0.1433732459298795</v>
       </c>
       <c r="O16">
-        <v>3.783312644575886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5850975070236828</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.11982988915814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.606992942764606</v>
+        <v>3.791294300219533</v>
       </c>
       <c r="C17">
-        <v>0.1023265220914524</v>
+        <v>0.7685342058770459</v>
       </c>
       <c r="D17">
-        <v>0.3352363376922654</v>
+        <v>0.1792155418047869</v>
       </c>
       <c r="E17">
-        <v>0.07276040031924857</v>
+        <v>0.06098641668202287</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008311646502963842</v>
+        <v>0.3021841889485657</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1278023030878614</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003058790495169106</v>
       </c>
       <c r="J17">
-        <v>0.0294156023991059</v>
+        <v>0.2824271701060042</v>
       </c>
       <c r="K17">
-        <v>1.292683492955803</v>
+        <v>0.2447250142478588</v>
       </c>
       <c r="L17">
-        <v>0.2439013732957136</v>
+        <v>0.1628414300935788</v>
       </c>
       <c r="M17">
-        <v>0.347017251211625</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.335364868342374</v>
+        <v>0.1570165417940643</v>
       </c>
       <c r="O17">
-        <v>3.749799326731619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5751037961754903</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.179926188101277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.569213923943892</v>
+        <v>3.678393764267582</v>
       </c>
       <c r="C18">
-        <v>0.101284328304736</v>
+        <v>0.7184232083344853</v>
       </c>
       <c r="D18">
-        <v>0.3304336297558592</v>
+        <v>0.1970859566220611</v>
       </c>
       <c r="E18">
-        <v>0.07241946579094183</v>
+        <v>0.05813957952022175</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008322242037745462</v>
+        <v>0.3380632732292668</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07514235057657714</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002965304236445476</v>
       </c>
       <c r="J18">
-        <v>0.02942993770444158</v>
+        <v>0.3026126018188293</v>
       </c>
       <c r="K18">
-        <v>1.260357346955772</v>
+        <v>0.2636458419767642</v>
       </c>
       <c r="L18">
-        <v>0.240033970516663</v>
+        <v>0.1346748712916508</v>
       </c>
       <c r="M18">
-        <v>0.3395080647266724</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.348194331382587</v>
+        <v>0.1902962826914418</v>
       </c>
       <c r="O18">
-        <v>3.731165892738602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5869026661835974</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.298177958393282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.556445732851472</v>
+        <v>3.621030400499762</v>
       </c>
       <c r="C19">
-        <v>0.1009315616357256</v>
+        <v>0.6745322010632151</v>
       </c>
       <c r="D19">
-        <v>0.3288146892308674</v>
+        <v>0.2227496403234142</v>
       </c>
       <c r="E19">
-        <v>0.0723053919787251</v>
+        <v>0.0578296235671274</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008325842834102576</v>
+        <v>0.3864531186747087</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02962520497240462</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003017162692057873</v>
       </c>
       <c r="J19">
-        <v>0.0294348593306264</v>
+        <v>0.3281984551185815</v>
       </c>
       <c r="K19">
-        <v>1.249427785550978</v>
+        <v>0.287671056796885</v>
       </c>
       <c r="L19">
-        <v>0.2387291955110413</v>
+        <v>0.1070199507279312</v>
       </c>
       <c r="M19">
-        <v>0.3369712276617918</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.352566580845547</v>
+        <v>0.2421534909732799</v>
       </c>
       <c r="O19">
-        <v>3.724965294525788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6159375126941313</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.454314354752952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.613996157819059</v>
+        <v>3.721508214870482</v>
       </c>
       <c r="C20">
-        <v>0.1025194613293223</v>
+        <v>0.6395980105691024</v>
       </c>
       <c r="D20">
-        <v>0.3361286541072417</v>
+        <v>0.270029803631175</v>
       </c>
       <c r="E20">
-        <v>0.07282415038686629</v>
+        <v>0.06399633697078677</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008309691803654504</v>
+        <v>0.4723451028517047</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002104079294507066</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002511302775630497</v>
       </c>
       <c r="J20">
-        <v>0.02941298165062101</v>
+        <v>0.3701316407168349</v>
       </c>
       <c r="K20">
-        <v>1.298673850135685</v>
+        <v>0.3265467286405475</v>
       </c>
       <c r="L20">
-        <v>0.2446193812816233</v>
+        <v>0.07967718065800966</v>
       </c>
       <c r="M20">
-        <v>0.348409752369399</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.333003991078904</v>
+        <v>0.3429996861237612</v>
       </c>
       <c r="O20">
-        <v>3.753299898767153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6919988569916384</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.724331470800649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.809077174138451</v>
+        <v>4.181414272258451</v>
       </c>
       <c r="C21">
-        <v>0.1078641928029995</v>
+        <v>0.7000731931184703</v>
       </c>
       <c r="D21">
-        <v>0.3612235524491751</v>
+        <v>0.2903248269125953</v>
       </c>
       <c r="E21">
-        <v>0.07466447881788341</v>
+        <v>0.06566770923961851</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008256331272965841</v>
+        <v>0.5018112574748841</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0007347567444520031</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001850111475640404</v>
       </c>
       <c r="J21">
-        <v>0.02934427966212105</v>
+        <v>0.3780951001097179</v>
       </c>
       <c r="K21">
-        <v>1.465302055749561</v>
+        <v>0.3221222799043311</v>
       </c>
       <c r="L21">
-        <v>0.2647490480255072</v>
+        <v>0.08445349178745332</v>
       </c>
       <c r="M21">
-        <v>0.3872579763853139</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.269297388690291</v>
+        <v>0.3864126251677789</v>
       </c>
       <c r="O21">
-        <v>3.85632938794069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7811684854088696</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.803858535312713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.937990655302883</v>
+        <v>4.48425438091391</v>
       </c>
       <c r="C22">
-        <v>0.1113675338020315</v>
+        <v>0.7395414577361237</v>
       </c>
       <c r="D22">
-        <v>0.3780396986474415</v>
+        <v>0.301885243470295</v>
       </c>
       <c r="E22">
-        <v>0.0759431327956861</v>
+        <v>0.06636197083626971</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008222103722191898</v>
+        <v>0.5197761603994877</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0002692013789906689</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001418127102899902</v>
       </c>
       <c r="J22">
-        <v>0.02930305761863305</v>
+        <v>0.3827021019218932</v>
       </c>
       <c r="K22">
-        <v>1.575183053810036</v>
+        <v>0.3188005077776168</v>
       </c>
       <c r="L22">
-        <v>0.2781766080090762</v>
+        <v>0.08859829293163912</v>
       </c>
       <c r="M22">
-        <v>0.4129869495622032</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.229222323227823</v>
+        <v>0.4095352213087864</v>
       </c>
       <c r="O22">
-        <v>3.92985760160505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.836726819704694</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.851833433438372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869048461890713</v>
+        <v>4.322914502486412</v>
       </c>
       <c r="C23">
-        <v>0.1094965895044098</v>
+        <v>0.7158035120245358</v>
       </c>
       <c r="D23">
-        <v>0.3690248277152222</v>
+        <v>0.295981488942715</v>
       </c>
       <c r="E23">
-        <v>0.07525352613374992</v>
+        <v>0.06606994800572696</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008240314275892348</v>
+        <v>0.5120549340106066</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0004861493582717369</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001308773996757218</v>
       </c>
       <c r="J23">
-        <v>0.02932471532253622</v>
+        <v>0.3811987825817909</v>
       </c>
       <c r="K23">
-        <v>1.516440563815422</v>
+        <v>0.3217933563034698</v>
       </c>
       <c r="L23">
-        <v>0.2709839669062717</v>
+        <v>0.08627532560108975</v>
       </c>
       <c r="M23">
-        <v>0.3992219173499976</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.250464681694943</v>
+        <v>0.3965875183754264</v>
       </c>
       <c r="O23">
-        <v>3.890023789820901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8067563415775965</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.83218707104129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.610829626397106</v>
+        <v>3.711728101222832</v>
       </c>
       <c r="C24">
-        <v>0.102432232849857</v>
+        <v>0.6306227417460093</v>
       </c>
       <c r="D24">
-        <v>0.3357251122377107</v>
+        <v>0.2735112042367547</v>
       </c>
       <c r="E24">
-        <v>0.07279530450517235</v>
+        <v>0.06483103432516923</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000831057526877889</v>
+        <v>0.4812066451613788</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001929018389326576</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001997340959097649</v>
       </c>
       <c r="J24">
-        <v>0.02941416523107421</v>
+        <v>0.3747812115621798</v>
       </c>
       <c r="K24">
-        <v>1.295965364465644</v>
+        <v>0.3320721120304881</v>
       </c>
       <c r="L24">
-        <v>0.2442946892044802</v>
+        <v>0.07769193281985309</v>
       </c>
       <c r="M24">
-        <v>0.3477801083295873</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.334070805804394</v>
+        <v>0.348768359838374</v>
       </c>
       <c r="O24">
-        <v>3.751715321033259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6939431130199267</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.752846676195588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.337527018689372</v>
+        <v>3.052687860073206</v>
       </c>
       <c r="C25">
-        <v>0.09483675501139288</v>
+        <v>0.5393142478963568</v>
       </c>
       <c r="D25">
-        <v>0.3014184315237287</v>
+        <v>0.2499624795392776</v>
       </c>
       <c r="E25">
-        <v>0.07044854385902433</v>
+        <v>0.06347813347254228</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008389314862730538</v>
+        <v>0.4509790782639698</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004688405100031268</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003952501993607527</v>
       </c>
       <c r="J25">
-        <v>0.02952583506577611</v>
+        <v>0.3696624520404299</v>
       </c>
       <c r="K25">
-        <v>1.06166430207054</v>
+        <v>0.3451829990442867</v>
       </c>
       <c r="L25">
-        <v>0.2165543643233079</v>
+        <v>0.06846874555569826</v>
       </c>
       <c r="M25">
-        <v>0.2935650908625576</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.430610724559511</v>
+        <v>0.2976092891531437</v>
       </c>
       <c r="O25">
-        <v>3.62685736628427</v>
+        <v>0.5725258172409724</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.677469903442983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567676702214669</v>
+        <v>2.571477122504973</v>
       </c>
       <c r="C2">
-        <v>0.4661712967066478</v>
+        <v>0.4777140557012842</v>
       </c>
       <c r="D2">
-        <v>0.2338423557774831</v>
+        <v>0.2298796514429426</v>
       </c>
       <c r="E2">
-        <v>0.06266231253390497</v>
+        <v>0.06105511177333423</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4357790663222119</v>
+        <v>0.3869201449937592</v>
       </c>
       <c r="H2">
-        <v>0.007617193503374586</v>
+        <v>0.006413373061104732</v>
       </c>
       <c r="I2">
-        <v>0.005541596532097515</v>
+        <v>0.004074172094322925</v>
       </c>
       <c r="J2">
-        <v>0.369773505842474</v>
+        <v>0.3773361128427268</v>
       </c>
       <c r="K2">
-        <v>0.3596208565833834</v>
+        <v>0.3260402195125565</v>
       </c>
       <c r="L2">
-        <v>0.06141973789674182</v>
+        <v>0.153293635691913</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09550529116244633</v>
       </c>
       <c r="N2">
-        <v>0.2587962643996633</v>
+        <v>0.06197949935555158</v>
       </c>
       <c r="O2">
-        <v>0.4824716624827019</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2721779520133509</v>
       </c>
       <c r="Q2">
-        <v>1.645025371125342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4868214580484178</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.53311542378016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.23798506712933</v>
+        <v>2.242154405324072</v>
       </c>
       <c r="C3">
-        <v>0.4203693235834294</v>
+        <v>0.4241208578306725</v>
       </c>
       <c r="D3">
-        <v>0.2228151739603845</v>
+        <v>0.2196059714330829</v>
       </c>
       <c r="E3">
-        <v>0.06198025975237798</v>
+        <v>0.06062395780882834</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4240136473886764</v>
+        <v>0.379615022300662</v>
       </c>
       <c r="H3">
-        <v>0.01013437536714506</v>
+        <v>0.008572248450817249</v>
       </c>
       <c r="I3">
-        <v>0.00753194636803789</v>
+        <v>0.005556397636387711</v>
       </c>
       <c r="J3">
-        <v>0.3692432729215938</v>
+        <v>0.3751094394610348</v>
       </c>
       <c r="K3">
-        <v>0.3685016307519895</v>
+        <v>0.3358382036932124</v>
       </c>
       <c r="L3">
-        <v>0.05676871891126112</v>
+        <v>0.1592612592885025</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09833255438074939</v>
       </c>
       <c r="N3">
-        <v>0.2334448472797703</v>
+        <v>0.05710396376704807</v>
       </c>
       <c r="O3">
-        <v>0.4218651773480175</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2457238461057045</v>
       </c>
       <c r="Q3">
-        <v>1.618648007337342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4252713700984074</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.51590110989909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.035173422918433</v>
+        <v>2.039464345421948</v>
       </c>
       <c r="C4">
-        <v>0.392396415903022</v>
+        <v>0.3915125081800284</v>
       </c>
       <c r="D4">
-        <v>0.2161683296422581</v>
+        <v>0.2134142703904729</v>
       </c>
       <c r="E4">
-        <v>0.06154916768097873</v>
+        <v>0.06034861188395801</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4172860732628294</v>
+        <v>0.3756214233255122</v>
       </c>
       <c r="H4">
-        <v>0.01192123652295642</v>
+        <v>0.01010780760434326</v>
       </c>
       <c r="I4">
-        <v>0.008998287830982221</v>
+        <v>0.00667130093506163</v>
       </c>
       <c r="J4">
-        <v>0.3692525107747926</v>
+        <v>0.3738569477302676</v>
       </c>
       <c r="K4">
-        <v>0.3743267995669814</v>
+        <v>0.3421447333619607</v>
       </c>
       <c r="L4">
-        <v>0.05390136776481214</v>
+        <v>0.1630925533797232</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1006314853946808</v>
       </c>
       <c r="N4">
-        <v>0.2179552909789138</v>
+        <v>0.05410578713074443</v>
       </c>
       <c r="O4">
-        <v>0.3846439018829173</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2295917753528158</v>
       </c>
       <c r="Q4">
-        <v>1.604196750434113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3874659114818257</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.50664739627112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.95235174015852</v>
+        <v>1.956667690236259</v>
       </c>
       <c r="C5">
-        <v>0.3816638344763703</v>
+        <v>0.3789388955380275</v>
       </c>
       <c r="D5">
-        <v>0.2134166506191661</v>
+        <v>0.2108489915629974</v>
       </c>
       <c r="E5">
-        <v>0.06134842145482189</v>
+        <v>0.06021331019300025</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4141628626639999</v>
+        <v>0.3736454589610716</v>
       </c>
       <c r="H5">
-        <v>0.0127117068561696</v>
+        <v>0.01078789312136485</v>
       </c>
       <c r="I5">
-        <v>0.009737355520833546</v>
+        <v>0.007269492809345302</v>
       </c>
       <c r="J5">
-        <v>0.3690762728775283</v>
+        <v>0.3731183873159409</v>
       </c>
       <c r="K5">
-        <v>0.3764487674320005</v>
+        <v>0.344474355389039</v>
       </c>
       <c r="L5">
-        <v>0.05275411625085269</v>
+        <v>0.1645302162027047</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.101639965865199</v>
       </c>
       <c r="N5">
-        <v>0.2118061424643898</v>
+        <v>0.05290769530326145</v>
       </c>
       <c r="O5">
-        <v>0.3695486466353231</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.223187098055611</v>
       </c>
       <c r="Q5">
-        <v>1.597119387869725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.372129912093996</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.501675291654308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.938507901617982</v>
+        <v>1.942826127369131</v>
       </c>
       <c r="C6">
-        <v>0.3806604486200627</v>
+        <v>0.3776454535186247</v>
       </c>
       <c r="D6">
-        <v>0.2128722362515276</v>
+        <v>0.2103387598568958</v>
       </c>
       <c r="E6">
-        <v>0.06128818535526648</v>
+        <v>0.06016584916686751</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4130394516846607</v>
+        <v>0.3727552391274926</v>
       </c>
       <c r="H6">
-        <v>0.01285131756693825</v>
+        <v>0.01090820996890565</v>
       </c>
       <c r="I6">
-        <v>0.009971768919975865</v>
+        <v>0.007495936299768857</v>
       </c>
       <c r="J6">
-        <v>0.3687320717765417</v>
+        <v>0.3726846359426048</v>
       </c>
       <c r="K6">
-        <v>0.3763884112939362</v>
+        <v>0.3444861940429362</v>
       </c>
       <c r="L6">
-        <v>0.05259398521092251</v>
+        <v>0.164570332484189</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1017317639685533</v>
       </c>
       <c r="N6">
-        <v>0.2109646012597892</v>
+        <v>0.05274002029421965</v>
       </c>
       <c r="O6">
-        <v>0.3671364137786739</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.222300638606086</v>
       </c>
       <c r="Q6">
-        <v>1.594002371863866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3696753319068193</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.499015064776458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033823185784229</v>
+        <v>2.038123331285817</v>
       </c>
       <c r="C7">
-        <v>0.3943801029603264</v>
+        <v>0.3931393232138021</v>
       </c>
       <c r="D7">
-        <v>0.2158876994454033</v>
+        <v>0.2131622082385434</v>
       </c>
       <c r="E7">
-        <v>0.06147403833835341</v>
+        <v>0.060274643955748</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4155736185723313</v>
+        <v>0.3764388972754489</v>
       </c>
       <c r="H7">
-        <v>0.0119442119739635</v>
+        <v>0.01013537756775793</v>
       </c>
       <c r="I7">
-        <v>0.00928683797793628</v>
+        <v>0.007005691446561713</v>
       </c>
       <c r="J7">
-        <v>0.3683782334345267</v>
+        <v>0.3690105989065486</v>
       </c>
       <c r="K7">
-        <v>0.3732167614277433</v>
+        <v>0.3407597441050196</v>
       </c>
       <c r="L7">
-        <v>0.05397012173252591</v>
+        <v>0.1623791169472213</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.100311488936212</v>
       </c>
       <c r="N7">
-        <v>0.2183607288784373</v>
+        <v>0.05414796636283015</v>
       </c>
       <c r="O7">
-        <v>0.3846990628295046</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2299069153975282</v>
       </c>
       <c r="Q7">
-        <v>1.598734437492581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3874740788674416</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.498601483132035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.453752589920384</v>
+        <v>2.457730480284795</v>
       </c>
       <c r="C8">
-        <v>0.4531974137709653</v>
+        <v>0.460844449684771</v>
       </c>
       <c r="D8">
-        <v>0.2296934325772355</v>
+        <v>0.2260653798070535</v>
       </c>
       <c r="E8">
-        <v>0.06233604667090731</v>
+        <v>0.06080889659263011</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4294143007437867</v>
+        <v>0.3902791713785092</v>
       </c>
       <c r="H8">
-        <v>0.008446548962158199</v>
+        <v>0.007143499874092518</v>
       </c>
       <c r="I8">
-        <v>0.006509225024837306</v>
+        <v>0.004943204240071886</v>
       </c>
       <c r="J8">
-        <v>0.3683755795924597</v>
+        <v>0.3624879029862527</v>
       </c>
       <c r="K8">
-        <v>0.3611181999339763</v>
+        <v>0.3267866506667776</v>
       </c>
       <c r="L8">
-        <v>0.05993217181482535</v>
+        <v>0.1541109752929266</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0956321437626908</v>
       </c>
       <c r="N8">
-        <v>0.2506887101438195</v>
+        <v>0.06032418495443181</v>
       </c>
       <c r="O8">
-        <v>0.4619178802522157</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2634099939379979</v>
       </c>
       <c r="Q8">
-        <v>1.628495067990215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4658073191824954</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.510656456548631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.27517196853853</v>
+        <v>3.277535215595947</v>
       </c>
       <c r="C9">
-        <v>0.5660584026815059</v>
+        <v>0.5935676581395626</v>
       </c>
       <c r="D9">
-        <v>0.2582401312878488</v>
+        <v>0.2526990911234179</v>
       </c>
       <c r="E9">
-        <v>0.0640590303255113</v>
+        <v>0.06190889156934354</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4637478957984627</v>
+        <v>0.4155820389047733</v>
       </c>
       <c r="H9">
-        <v>0.003598137788634048</v>
+        <v>0.002997540681474509</v>
       </c>
       <c r="I9">
-        <v>0.002695201085448851</v>
+        <v>0.002105569466857915</v>
       </c>
       <c r="J9">
-        <v>0.3726899878891459</v>
+        <v>0.3662156047302574</v>
       </c>
       <c r="K9">
-        <v>0.3424762107573862</v>
+        <v>0.304975972949336</v>
       </c>
       <c r="L9">
-        <v>0.07141369582632962</v>
+        <v>0.1407794220109331</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09183642670783421</v>
       </c>
       <c r="N9">
-        <v>0.3139013366226777</v>
+        <v>0.07237418988550814</v>
       </c>
       <c r="O9">
-        <v>0.6129357415132404</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3294946780356156</v>
       </c>
       <c r="Q9">
-        <v>1.711076932672313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6190981852467203</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.56496589787514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.881308710056487</v>
+        <v>3.881894809024573</v>
       </c>
       <c r="C10">
-        <v>0.6561918972222429</v>
+        <v>0.695994589368695</v>
       </c>
       <c r="D10">
-        <v>0.2755429272711325</v>
+        <v>0.2688576321809961</v>
       </c>
       <c r="E10">
-        <v>0.06430308450056899</v>
+        <v>0.06180942130686784</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4830742672201609</v>
+        <v>0.4439046580859412</v>
       </c>
       <c r="H10">
-        <v>0.001702156043880354</v>
+        <v>0.001435563293243014</v>
       </c>
       <c r="I10">
-        <v>0.001464568949756107</v>
+        <v>0.001380824436919781</v>
       </c>
       <c r="J10">
-        <v>0.3732032125141558</v>
+        <v>0.344730174208209</v>
       </c>
       <c r="K10">
-        <v>0.3258625919269704</v>
+        <v>0.2847253025398899</v>
       </c>
       <c r="L10">
-        <v>0.08211786765188478</v>
+        <v>0.1297856413206571</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08952017139934654</v>
       </c>
       <c r="N10">
-        <v>0.351841148716602</v>
+        <v>0.0834454793813606</v>
       </c>
       <c r="O10">
-        <v>0.7193441883500853</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3687733444797061</v>
       </c>
       <c r="Q10">
-        <v>1.753640559776329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7267067515829098</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.572182748734377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.187587328578559</v>
+        <v>4.188339367710967</v>
       </c>
       <c r="C11">
-        <v>0.7469978299176034</v>
+        <v>0.7807353774045112</v>
       </c>
       <c r="D11">
-        <v>0.2472238319519136</v>
+        <v>0.2417121079651992</v>
       </c>
       <c r="E11">
-        <v>0.0588506329256121</v>
+        <v>0.05706842423248926</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4224808156009061</v>
+        <v>0.4196810474420545</v>
       </c>
       <c r="H11">
-        <v>0.02013246230304233</v>
+        <v>0.01992986977386124</v>
       </c>
       <c r="I11">
-        <v>0.001747422277610156</v>
+        <v>0.001882053077595813</v>
       </c>
       <c r="J11">
-        <v>0.3380479314673437</v>
+        <v>0.2798924567911882</v>
       </c>
       <c r="K11">
-        <v>0.2817866017299231</v>
+        <v>0.2454543647381655</v>
       </c>
       <c r="L11">
-        <v>0.1110606232745468</v>
+        <v>0.1151544034482832</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07590234086602266</v>
       </c>
       <c r="N11">
-        <v>0.2930525240583393</v>
+        <v>0.1127485107436783</v>
       </c>
       <c r="O11">
-        <v>0.7253416883075658</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3061774013212641</v>
       </c>
       <c r="Q11">
-        <v>1.551800210027693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7314369069863957</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.364496629943631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.319662378317673</v>
+        <v>4.321005801022523</v>
       </c>
       <c r="C12">
-        <v>0.8042171484638629</v>
+        <v>0.8303756089285912</v>
       </c>
       <c r="D12">
-        <v>0.2213658524819522</v>
+        <v>0.2168908488640824</v>
       </c>
       <c r="E12">
-        <v>0.05784601985145521</v>
+        <v>0.05654090461216654</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.37237332511652</v>
+        <v>0.3868177202247267</v>
       </c>
       <c r="H12">
-        <v>0.05886035186745175</v>
+        <v>0.05866900074469328</v>
       </c>
       <c r="I12">
-        <v>0.001698308591739917</v>
+        <v>0.001855233042330262</v>
       </c>
       <c r="J12">
-        <v>0.3106649495763989</v>
+        <v>0.2486189904403133</v>
       </c>
       <c r="K12">
-        <v>0.2533265685412385</v>
+        <v>0.2226488292511277</v>
       </c>
       <c r="L12">
-        <v>0.1394493205680334</v>
+        <v>0.107629920862613</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06679450367905204</v>
       </c>
       <c r="N12">
-        <v>0.2399443156695469</v>
+        <v>0.1411373218317493</v>
       </c>
       <c r="O12">
-        <v>0.7069595051069584</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2502331957835793</v>
       </c>
       <c r="Q12">
-        <v>1.388323526167909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7119121529220465</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.213842668645384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.323633350991827</v>
+        <v>4.325946158604552</v>
       </c>
       <c r="C13">
-        <v>0.8416736404375911</v>
+        <v>0.8600659456936626</v>
       </c>
       <c r="D13">
-        <v>0.195591750894792</v>
+        <v>0.1920678433637448</v>
       </c>
       <c r="E13">
-        <v>0.05999313662624228</v>
+        <v>0.05905973806742981</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.324683402317909</v>
+        <v>0.3382997967877301</v>
       </c>
       <c r="H13">
-        <v>0.114836903175501</v>
+        <v>0.1146118268117249</v>
       </c>
       <c r="I13">
-        <v>0.001739488209600459</v>
+        <v>0.00185267059957539</v>
       </c>
       <c r="J13">
-        <v>0.2862099647702294</v>
+        <v>0.2380094355770304</v>
       </c>
       <c r="K13">
-        <v>0.2332116461152278</v>
+        <v>0.2090873799002591</v>
       </c>
       <c r="L13">
-        <v>0.1687930016604113</v>
+        <v>0.1036522755447868</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06037698996367524</v>
       </c>
       <c r="N13">
-        <v>0.1891904820192138</v>
+        <v>0.1703545363670571</v>
       </c>
       <c r="O13">
-        <v>0.6693007714595041</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1973163738669754</v>
       </c>
       <c r="Q13">
-        <v>1.235999190382117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6732368167270124</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.092790678446676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.268210620884645</v>
+        <v>4.271355862935536</v>
       </c>
       <c r="C14">
-        <v>0.8597747148600945</v>
+        <v>0.872612240337304</v>
       </c>
       <c r="D14">
-        <v>0.1778718959568906</v>
+        <v>0.1749680954971495</v>
       </c>
       <c r="E14">
-        <v>0.06333864079816642</v>
+        <v>0.06260989561804919</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.292622188200987</v>
+        <v>0.2991268767677298</v>
       </c>
       <c r="H14">
-        <v>0.1644234478639532</v>
+        <v>0.1641510992872526</v>
       </c>
       <c r="I14">
-        <v>0.001910946347758014</v>
+        <v>0.001974232867776315</v>
       </c>
       <c r="J14">
-        <v>0.2704829839871152</v>
+        <v>0.2374756041614603</v>
       </c>
       <c r="K14">
-        <v>0.2232230488278297</v>
+        <v>0.2035091782330527</v>
       </c>
       <c r="L14">
-        <v>0.1903933895910797</v>
+        <v>0.1021579878537677</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05722386241126109</v>
       </c>
       <c r="N14">
-        <v>0.1558728031542387</v>
+        <v>0.1917979006562831</v>
       </c>
       <c r="O14">
-        <v>0.6344843362992876</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1627858052222066</v>
       </c>
       <c r="Q14">
-        <v>1.135039637213211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6377565270308807</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.019637760736856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.227046441842901</v>
+        <v>4.230464418608676</v>
       </c>
       <c r="C15">
-        <v>0.8605229363943749</v>
+        <v>0.8720549319960753</v>
       </c>
       <c r="D15">
-        <v>0.1733699209431165</v>
+        <v>0.1706203865618789</v>
       </c>
       <c r="E15">
-        <v>0.06435837621829954</v>
+        <v>0.06368578617666465</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2845796965442631</v>
+        <v>0.2868621418612562</v>
       </c>
       <c r="H15">
-        <v>0.1770592783469027</v>
+        <v>0.1767611609358113</v>
       </c>
       <c r="I15">
-        <v>0.002105327357940112</v>
+        <v>0.002160656389906812</v>
       </c>
       <c r="J15">
-        <v>0.2669094196526913</v>
+        <v>0.2401186791224568</v>
       </c>
       <c r="K15">
-        <v>0.2218983882245595</v>
+        <v>0.2033192806606872</v>
       </c>
       <c r="L15">
-        <v>0.1950435334715053</v>
+        <v>0.1021485756317855</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0568379087025459</v>
       </c>
       <c r="N15">
-        <v>0.1477646253666052</v>
+        <v>0.1964237268971019</v>
       </c>
       <c r="O15">
-        <v>0.6221349602802633</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1544512946750771</v>
       </c>
       <c r="Q15">
-        <v>1.110469447576023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6252572051683174</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.004694649665083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963448501589653</v>
+        <v>3.967473470818391</v>
       </c>
       <c r="C16">
-        <v>0.8137919715233295</v>
+        <v>0.8256942271618755</v>
       </c>
       <c r="D16">
-        <v>0.1714626303105788</v>
+        <v>0.1688076274159158</v>
       </c>
       <c r="E16">
-        <v>0.06361156223949394</v>
+        <v>0.06307495518174555</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2850519610551743</v>
+        <v>0.2669399687861045</v>
       </c>
       <c r="H16">
-        <v>0.1650871159478697</v>
+        <v>0.1646369869660873</v>
       </c>
       <c r="I16">
-        <v>0.002665410458082995</v>
+        <v>0.002560074577406368</v>
       </c>
       <c r="J16">
-        <v>0.2710068279342792</v>
+        <v>0.2680554478063186</v>
       </c>
       <c r="K16">
-        <v>0.2319362635625799</v>
+        <v>0.2142655758920888</v>
       </c>
       <c r="L16">
-        <v>0.1835070293228824</v>
+        <v>0.1056419967178677</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06033555621518349</v>
       </c>
       <c r="N16">
-        <v>0.1433732459298795</v>
+        <v>0.1851179194051937</v>
       </c>
       <c r="O16">
-        <v>0.5850975070236828</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1504949670556783</v>
       </c>
       <c r="Q16">
-        <v>1.11982988915814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.588289895492295</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.039066095274094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.791294300219533</v>
+        <v>3.795326489256354</v>
       </c>
       <c r="C17">
-        <v>0.7685342058770459</v>
+        <v>0.7829413158978014</v>
       </c>
       <c r="D17">
-        <v>0.1792155418047869</v>
+        <v>0.1763383342433116</v>
       </c>
       <c r="E17">
-        <v>0.06098641668202287</v>
+        <v>0.06042668082407854</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3021841889485657</v>
+        <v>0.2739984919859637</v>
       </c>
       <c r="H17">
-        <v>0.1278023030878614</v>
+        <v>0.1272561507736754</v>
       </c>
       <c r="I17">
-        <v>0.003058790495169106</v>
+        <v>0.002853001580829684</v>
       </c>
       <c r="J17">
-        <v>0.2824271701060042</v>
+        <v>0.2895281268666281</v>
       </c>
       <c r="K17">
-        <v>0.2447250142478588</v>
+        <v>0.225807452811682</v>
       </c>
       <c r="L17">
-        <v>0.1628414300935788</v>
+        <v>0.1095972621958925</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06444894467673912</v>
       </c>
       <c r="N17">
-        <v>0.1570165417940643</v>
+        <v>0.1646330655195953</v>
       </c>
       <c r="O17">
-        <v>0.5751037961754903</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1650484728798958</v>
       </c>
       <c r="Q17">
-        <v>1.179926188101277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5786395782494083</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.102641368788596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.678393764267582</v>
+        <v>3.681970286223702</v>
       </c>
       <c r="C18">
-        <v>0.7184232083344853</v>
+        <v>0.7380187046370281</v>
       </c>
       <c r="D18">
-        <v>0.1970859566220611</v>
+        <v>0.1935961211911774</v>
       </c>
       <c r="E18">
-        <v>0.05813957952022175</v>
+        <v>0.05736357155623395</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3380632732292668</v>
+        <v>0.3018600660849913</v>
       </c>
       <c r="H18">
-        <v>0.07514235057657714</v>
+        <v>0.07456191120355982</v>
       </c>
       <c r="I18">
-        <v>0.002965304236445476</v>
+        <v>0.002670372712087143</v>
       </c>
       <c r="J18">
-        <v>0.3026126018188293</v>
+        <v>0.3124050526608784</v>
       </c>
       <c r="K18">
-        <v>0.2636458419767642</v>
+        <v>0.2414316456360162</v>
       </c>
       <c r="L18">
-        <v>0.1346748712916508</v>
+        <v>0.1152997109176894</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07022250608412861</v>
       </c>
       <c r="N18">
-        <v>0.1902962826914418</v>
+        <v>0.1366061689407516</v>
       </c>
       <c r="O18">
-        <v>0.5869026661835974</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2000226421616276</v>
       </c>
       <c r="Q18">
-        <v>1.298177958393282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5911685319677531</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.210175396992639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.621030400499762</v>
+        <v>3.623838855765541</v>
       </c>
       <c r="C19">
-        <v>0.6745322010632151</v>
+        <v>0.7009753704481625</v>
       </c>
       <c r="D19">
-        <v>0.2227496403234142</v>
+        <v>0.2182966991554451</v>
       </c>
       <c r="E19">
-        <v>0.0578296235671274</v>
+        <v>0.05659163564151348</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3864531186747087</v>
+        <v>0.3424245314052428</v>
       </c>
       <c r="H19">
-        <v>0.02962520497240462</v>
+        <v>0.02907927163229829</v>
       </c>
       <c r="I19">
-        <v>0.003017162692057873</v>
+        <v>0.002767719580663019</v>
       </c>
       <c r="J19">
-        <v>0.3281984551185815</v>
+        <v>0.3361925977526496</v>
       </c>
       <c r="K19">
-        <v>0.287671056796885</v>
+        <v>0.2603651347378886</v>
       </c>
       <c r="L19">
-        <v>0.1070199507279312</v>
+        <v>0.1223570082123508</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07736229219679025</v>
       </c>
       <c r="N19">
-        <v>0.2421534909732799</v>
+        <v>0.1088982768944575</v>
       </c>
       <c r="O19">
-        <v>0.6159375126941313</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2543638615332924</v>
       </c>
       <c r="Q19">
-        <v>1.454314354752952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6212359196837411</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.345601749096517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.721508214870482</v>
+        <v>3.722627880522566</v>
       </c>
       <c r="C20">
-        <v>0.6395980105691024</v>
+        <v>0.6777477716571241</v>
       </c>
       <c r="D20">
-        <v>0.270029803631175</v>
+        <v>0.2636118842869877</v>
       </c>
       <c r="E20">
-        <v>0.06399633697078677</v>
+        <v>0.06162753977095914</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4723451028517047</v>
+        <v>0.4223541031077644</v>
       </c>
       <c r="H20">
-        <v>0.002104079294507066</v>
+        <v>0.001753322697941151</v>
       </c>
       <c r="I20">
-        <v>0.002511302775630497</v>
+        <v>0.002463411137948235</v>
       </c>
       <c r="J20">
-        <v>0.3701316407168349</v>
+        <v>0.3607444095826011</v>
       </c>
       <c r="K20">
-        <v>0.3265467286405475</v>
+        <v>0.288177667102012</v>
       </c>
       <c r="L20">
-        <v>0.07967718065800966</v>
+        <v>0.1319399054391592</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08929163355147196</v>
       </c>
       <c r="N20">
-        <v>0.3429996861237612</v>
+        <v>0.08102528312494428</v>
       </c>
       <c r="O20">
-        <v>0.6919988569916384</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3598267743663399</v>
       </c>
       <c r="Q20">
-        <v>1.724331470800649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6991754353489412</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.564064487054935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.181414272258451</v>
+        <v>4.180746692920934</v>
       </c>
       <c r="C21">
-        <v>0.7000731931184703</v>
+        <v>0.7416768406018832</v>
       </c>
       <c r="D21">
-        <v>0.2903248269125953</v>
+        <v>0.2831627342653036</v>
       </c>
       <c r="E21">
-        <v>0.06566770923961851</v>
+        <v>0.06282415683556586</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5018112574748841</v>
+        <v>0.5063148693949557</v>
       </c>
       <c r="H21">
-        <v>0.0007347567444520031</v>
+        <v>0.0006130834102422433</v>
       </c>
       <c r="I21">
-        <v>0.001850111475640404</v>
+        <v>0.00209348831165812</v>
       </c>
       <c r="J21">
-        <v>0.3780951001097179</v>
+        <v>0.2899956628410578</v>
       </c>
       <c r="K21">
-        <v>0.3221222799043311</v>
+        <v>0.2726929123860273</v>
       </c>
       <c r="L21">
-        <v>0.08445349178745332</v>
+        <v>0.1239134813973877</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08792340148711375</v>
       </c>
       <c r="N21">
-        <v>0.3864126251677789</v>
+        <v>0.08544418133516274</v>
       </c>
       <c r="O21">
-        <v>0.7811684854088696</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4034536950548215</v>
       </c>
       <c r="Q21">
-        <v>1.803858535312713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7886804679614698</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.555655899848432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.48425438091391</v>
+        <v>4.482290926661165</v>
       </c>
       <c r="C22">
-        <v>0.7395414577361237</v>
+        <v>0.7823483304977685</v>
       </c>
       <c r="D22">
-        <v>0.301885243470295</v>
+        <v>0.2943762094738105</v>
       </c>
       <c r="E22">
-        <v>0.06636197083626971</v>
+        <v>0.06328211900768466</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5197761603994877</v>
+        <v>0.5683261064538669</v>
       </c>
       <c r="H22">
-        <v>0.0002692013789906689</v>
+        <v>0.0002306358439287948</v>
       </c>
       <c r="I22">
-        <v>0.001418127102899902</v>
+        <v>0.001707579550204841</v>
       </c>
       <c r="J22">
-        <v>0.3827021019218932</v>
+        <v>0.249124523706989</v>
       </c>
       <c r="K22">
-        <v>0.3188005077776168</v>
+        <v>0.2619093189398107</v>
       </c>
       <c r="L22">
-        <v>0.08859829293163912</v>
+        <v>0.1186782531146662</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08696504420551321</v>
       </c>
       <c r="N22">
-        <v>0.4095352213087864</v>
+        <v>0.08936428136437868</v>
       </c>
       <c r="O22">
-        <v>0.836726819704694</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4263608070604761</v>
       </c>
       <c r="Q22">
-        <v>1.851833433438372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8442706530112858</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.542542050509809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.322914502486412</v>
+        <v>4.321640433405946</v>
       </c>
       <c r="C23">
-        <v>0.7158035120245358</v>
+        <v>0.7589086419594366</v>
       </c>
       <c r="D23">
-        <v>0.295981488942715</v>
+        <v>0.2885787415510919</v>
       </c>
       <c r="E23">
-        <v>0.06606994800572696</v>
+        <v>0.06310692507892046</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5120549340106066</v>
+        <v>0.5293657766709998</v>
       </c>
       <c r="H23">
-        <v>0.0004861493582717369</v>
+        <v>0.0004069392810776007</v>
       </c>
       <c r="I23">
-        <v>0.001308773996757218</v>
+        <v>0.001518129864020779</v>
       </c>
       <c r="J23">
-        <v>0.3811987825817909</v>
+        <v>0.277277909244539</v>
       </c>
       <c r="K23">
-        <v>0.3217933563034698</v>
+        <v>0.2695111170864131</v>
       </c>
       <c r="L23">
-        <v>0.08627532560108975</v>
+        <v>0.1220356065062909</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08826539475086292</v>
       </c>
       <c r="N23">
-        <v>0.3965875183754264</v>
+        <v>0.08722444388143202</v>
       </c>
       <c r="O23">
-        <v>0.8067563415775965</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4137555598223059</v>
       </c>
       <c r="Q23">
-        <v>1.83218707104129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.8144085188979204</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.562230034970383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.711728101222832</v>
+        <v>3.712768885842422</v>
       </c>
       <c r="C24">
-        <v>0.6306227417460093</v>
+        <v>0.6691389226722606</v>
       </c>
       <c r="D24">
-        <v>0.2735112042367547</v>
+        <v>0.2669505651893047</v>
       </c>
       <c r="E24">
-        <v>0.06483103432516923</v>
+        <v>0.06236405158260983</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4812066451613788</v>
+        <v>0.4297041901684935</v>
       </c>
       <c r="H24">
-        <v>0.001929018389326576</v>
+        <v>0.001583741755734391</v>
       </c>
       <c r="I24">
-        <v>0.001997340959097649</v>
+        <v>0.001851801974022571</v>
       </c>
       <c r="J24">
-        <v>0.3747812115621798</v>
+        <v>0.3654435905369127</v>
       </c>
       <c r="K24">
-        <v>0.3320721120304881</v>
+        <v>0.2927036173531405</v>
       </c>
       <c r="L24">
-        <v>0.07769193281985309</v>
+        <v>0.1336175926480525</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09100030670149728</v>
       </c>
       <c r="N24">
-        <v>0.348768359838374</v>
+        <v>0.07896723858383936</v>
       </c>
       <c r="O24">
-        <v>0.6939431130199267</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3659450992552564</v>
       </c>
       <c r="Q24">
-        <v>1.752846676195588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7012432072944748</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.589485456972739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.052687860073206</v>
+        <v>3.055602588006309</v>
       </c>
       <c r="C25">
-        <v>0.5393142478963568</v>
+        <v>0.5619992557891464</v>
       </c>
       <c r="D25">
-        <v>0.2499624795392776</v>
+        <v>0.2449372129424034</v>
       </c>
       <c r="E25">
-        <v>0.06347813347254228</v>
+        <v>0.06151200603295148</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4509790782639698</v>
+        <v>0.4020088241748709</v>
       </c>
       <c r="H25">
-        <v>0.004688405100031268</v>
+        <v>0.003921305576710943</v>
       </c>
       <c r="I25">
-        <v>0.003952501993607527</v>
+        <v>0.003214500705328582</v>
       </c>
       <c r="J25">
-        <v>0.3696624520404299</v>
+        <v>0.3691138945049133</v>
       </c>
       <c r="K25">
-        <v>0.3451829990442867</v>
+        <v>0.3094024048035777</v>
       </c>
       <c r="L25">
-        <v>0.06846874555569826</v>
+        <v>0.1437543011195945</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09195192171802624</v>
       </c>
       <c r="N25">
-        <v>0.2976092891531437</v>
+        <v>0.0693176956325523</v>
       </c>
       <c r="O25">
-        <v>0.5725258172409724</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3125014900407592</v>
       </c>
       <c r="Q25">
-        <v>1.677469903442983</v>
+        <v>0.578128279420703</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.544266880619546</v>
       </c>
     </row>
   </sheetData>
